--- a/exiobase-oil-crops/data/Foreground intermediate.xlsx
+++ b/exiobase-oil-crops/data/Foreground intermediate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele\2.-0 LCA team Dropbox\2.-0 LCA consultants\ILCA\5 veg oil case_(LCI and CSVs)\CSV files\1_CSV_back_EXIOBASE3.3.13 Linked\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.portner\Desktop\regionalized-lca-examples-master\regionalized-lca-examples\exiobase-oil-crops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="368">
   <si>
     <t>Product</t>
   </si>
@@ -1219,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1404,11 +1404,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,9 +1492,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1499,7 +1511,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1761,60 +1773,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:II118"/>
+  <dimension ref="A1:II119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="5" customWidth="1"/>
-    <col min="18" max="33" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" style="5" customWidth="1"/>
-    <col min="35" max="49" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.7109375" style="5" customWidth="1"/>
-    <col min="51" max="59" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" style="5" customWidth="1"/>
-    <col min="61" max="68" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.7109375" style="5" customWidth="1"/>
-    <col min="70" max="101" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.7109375" style="5" customWidth="1"/>
-    <col min="103" max="132" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="10.7109375" style="5" customWidth="1"/>
-    <col min="134" max="141" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.7109375" style="5" customWidth="1"/>
-    <col min="143" max="148" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="149" max="152" width="10.7109375" style="5" customWidth="1"/>
-    <col min="153" max="160" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="10.7109375" style="5" customWidth="1"/>
-    <col min="162" max="163" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="10.7109375" style="5" customWidth="1"/>
-    <col min="165" max="166" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="167" max="170" width="10.7109375" style="5" customWidth="1"/>
-    <col min="171" max="178" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="179" max="183" width="10.7109375" style="5" customWidth="1"/>
-    <col min="184" max="191" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="9.28515625" style="5" customWidth="1"/>
-    <col min="193" max="198" width="9.85546875" style="5" customWidth="1"/>
-    <col min="199" max="202" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5" customWidth="1"/>
+    <col min="9" max="16" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="5" customWidth="1"/>
+    <col min="18" max="33" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="5" customWidth="1"/>
+    <col min="35" max="49" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6640625" style="5" customWidth="1"/>
+    <col min="51" max="59" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.6640625" style="5" customWidth="1"/>
+    <col min="61" max="68" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.6640625" style="5" customWidth="1"/>
+    <col min="70" max="101" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.6640625" style="5" customWidth="1"/>
+    <col min="103" max="132" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.6640625" style="5" customWidth="1"/>
+    <col min="134" max="141" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.6640625" style="5" customWidth="1"/>
+    <col min="143" max="148" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="152" width="10.6640625" style="5" customWidth="1"/>
+    <col min="153" max="160" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10.6640625" style="5" customWidth="1"/>
+    <col min="162" max="163" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="10.6640625" style="5" customWidth="1"/>
+    <col min="165" max="166" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="167" max="170" width="10.6640625" style="5" customWidth="1"/>
+    <col min="171" max="178" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="179" max="183" width="10.6640625" style="5" customWidth="1"/>
+    <col min="184" max="191" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="9.33203125" style="5" customWidth="1"/>
+    <col min="193" max="198" width="9.88671875" style="5" customWidth="1"/>
+    <col min="199" max="202" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="203" max="205" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="18" style="5" customWidth="1"/>
     <col min="207" max="211" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="212" max="213" width="10.7109375" style="5"/>
-    <col min="214" max="214" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="215" max="16384" width="10.7109375" style="5"/>
+    <col min="212" max="213" width="10.6640625" style="5"/>
+    <col min="214" max="214" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="215" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:243" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:243" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2539,7 +2551,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:243" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -3264,7 +3276,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:243" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -3987,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:243" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -4232,7 +4244,7 @@
       <c r="IH4" s="8"/>
       <c r="II4" s="8"/>
     </row>
-    <row r="5" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:243" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -4957,7 +4969,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:243" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -5682,16 +5694,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:243" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>251</v>
-      </c>
+    <row r="7" spans="1:243" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
         <v>252</v>
       </c>
@@ -6413,380 +6419,380 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:243" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:243" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="13"/>
-      <c r="BY8" s="13"/>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="13"/>
-      <c r="CI8" s="13"/>
-      <c r="CJ8" s="13"/>
-      <c r="CK8" s="13"/>
-      <c r="CL8" s="13"/>
-      <c r="CM8" s="13"/>
-      <c r="CN8" s="13"/>
-      <c r="CO8" s="13"/>
-      <c r="CP8" s="13"/>
-      <c r="CQ8" s="13"/>
-      <c r="CR8" s="13"/>
-      <c r="CS8" s="13"/>
-      <c r="CT8" s="13"/>
-      <c r="CU8" s="13"/>
-      <c r="CV8" s="13"/>
-      <c r="CW8" s="13"/>
-      <c r="CX8" s="13"/>
-      <c r="CY8" s="13"/>
-      <c r="CZ8" s="13"/>
-      <c r="DA8" s="13"/>
-      <c r="DB8" s="13"/>
-      <c r="DC8" s="13"/>
-      <c r="DD8" s="13"/>
-      <c r="DE8" s="13"/>
-      <c r="DF8" s="13"/>
-      <c r="DG8" s="13"/>
-      <c r="DH8" s="13"/>
-      <c r="DI8" s="13"/>
-      <c r="DJ8" s="14"/>
-      <c r="DK8" s="14"/>
-      <c r="DL8" s="14"/>
-      <c r="DM8" s="14"/>
-      <c r="DN8" s="14"/>
-      <c r="DO8" s="14"/>
-      <c r="DP8" s="14"/>
-      <c r="DQ8" s="14"/>
-      <c r="DR8" s="14"/>
-      <c r="DS8" s="14"/>
-      <c r="DT8" s="14"/>
-      <c r="DU8" s="14"/>
-      <c r="DV8" s="14"/>
-      <c r="DW8" s="14"/>
-      <c r="DX8" s="14"/>
-      <c r="DY8" s="14"/>
-      <c r="DZ8" s="14"/>
-      <c r="EA8" s="14"/>
-      <c r="EB8" s="14"/>
-      <c r="EC8" s="14"/>
-      <c r="ED8" s="14"/>
-      <c r="EE8" s="14"/>
-      <c r="EF8" s="14"/>
-      <c r="EG8" s="14"/>
-      <c r="EH8" s="14"/>
-      <c r="EI8" s="14"/>
-      <c r="EJ8" s="14"/>
-      <c r="EK8" s="14"/>
-      <c r="EL8" s="14"/>
-      <c r="EM8" s="14"/>
-      <c r="EN8" s="14"/>
-      <c r="EO8" s="14"/>
-      <c r="EP8" s="14"/>
-      <c r="EQ8" s="14"/>
-      <c r="ER8" s="14"/>
-      <c r="ES8" s="14"/>
-      <c r="ET8" s="14"/>
-      <c r="EU8" s="14"/>
-      <c r="EV8" s="14"/>
-      <c r="EW8" s="14"/>
-      <c r="EX8" s="14"/>
-      <c r="EY8" s="14"/>
-      <c r="EZ8" s="14"/>
-      <c r="FA8" s="14"/>
-      <c r="FB8" s="14"/>
-      <c r="FC8" s="14"/>
-      <c r="FD8" s="14"/>
-      <c r="FE8" s="14"/>
-      <c r="FF8" s="14"/>
-      <c r="FG8" s="14"/>
-      <c r="FH8" s="14"/>
-      <c r="FI8" s="14"/>
-      <c r="FJ8" s="14"/>
-      <c r="FK8" s="14"/>
-      <c r="FL8" s="14"/>
-      <c r="FM8" s="14"/>
-      <c r="FN8" s="14"/>
-      <c r="FO8" s="14"/>
-      <c r="FP8" s="14"/>
-      <c r="FQ8" s="14"/>
-      <c r="FR8" s="14"/>
-      <c r="FS8" s="14"/>
-      <c r="FT8" s="14"/>
-      <c r="FU8" s="14"/>
-      <c r="FV8" s="14"/>
-      <c r="FW8" s="14"/>
-      <c r="FX8" s="14"/>
-      <c r="FY8" s="14"/>
-      <c r="FZ8" s="14"/>
-      <c r="GA8" s="14"/>
-      <c r="GB8" s="14"/>
-      <c r="GC8" s="14"/>
-      <c r="GD8" s="14"/>
-      <c r="GE8" s="14"/>
-      <c r="GF8" s="14"/>
-      <c r="GG8" s="14"/>
-      <c r="GH8" s="14"/>
-      <c r="GI8" s="14"/>
-      <c r="GJ8" s="14"/>
-      <c r="GK8" s="14"/>
-      <c r="GL8" s="14"/>
-      <c r="GM8" s="14"/>
-      <c r="GN8" s="14"/>
-      <c r="GO8" s="14"/>
-      <c r="GP8" s="14"/>
-      <c r="GQ8" s="14"/>
-      <c r="GR8" s="14"/>
-      <c r="GS8" s="14"/>
-      <c r="GT8" s="14"/>
-      <c r="GU8" s="14"/>
-      <c r="GV8" s="14"/>
-      <c r="GW8" s="14"/>
-      <c r="GX8" s="14"/>
-      <c r="GY8" s="14"/>
-      <c r="GZ8" s="14"/>
-      <c r="HA8" s="14"/>
-      <c r="HB8" s="14"/>
-      <c r="HC8" s="14"/>
-      <c r="HD8" s="14"/>
-      <c r="HE8" s="14"/>
-      <c r="HF8" s="14"/>
-      <c r="HG8" s="14"/>
-      <c r="HH8" s="14"/>
-      <c r="HI8" s="14"/>
-      <c r="HJ8" s="14"/>
-      <c r="HK8" s="14"/>
-      <c r="HL8" s="14"/>
-      <c r="HM8" s="14"/>
-      <c r="HN8" s="14"/>
-      <c r="HO8" s="14"/>
-      <c r="HP8" s="14"/>
-      <c r="HQ8" s="14"/>
-      <c r="HR8" s="14"/>
-      <c r="HS8" s="14"/>
-      <c r="HT8" s="14"/>
-      <c r="HU8" s="14"/>
-      <c r="HV8" s="14"/>
-      <c r="HW8" s="14"/>
-      <c r="HX8" s="14"/>
-      <c r="HY8" s="14"/>
-      <c r="HZ8" s="14"/>
-      <c r="IA8" s="14"/>
-      <c r="IB8" s="14"/>
-      <c r="IC8" s="14"/>
-      <c r="ID8" s="14"/>
-      <c r="IE8" s="14"/>
-      <c r="IF8" s="14"/>
-      <c r="IG8" s="14"/>
-      <c r="IH8" s="14"/>
-      <c r="II8" s="14"/>
-    </row>
-    <row r="9" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16"/>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16"/>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
-      <c r="CU9" s="16"/>
-      <c r="CV9" s="16"/>
-      <c r="CW9" s="16"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
-      <c r="DA9" s="16"/>
-      <c r="DB9" s="16"/>
-      <c r="DC9" s="16"/>
-      <c r="DD9" s="16"/>
-      <c r="DE9" s="16"/>
-      <c r="DF9" s="16"/>
-      <c r="DG9" s="16"/>
-      <c r="DH9" s="16"/>
-      <c r="DI9" s="16"/>
-    </row>
-    <row r="10" spans="1:243" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="13"/>
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13"/>
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13"/>
+      <c r="CW9" s="13"/>
+      <c r="CX9" s="13"/>
+      <c r="CY9" s="13"/>
+      <c r="CZ9" s="13"/>
+      <c r="DA9" s="13"/>
+      <c r="DB9" s="13"/>
+      <c r="DC9" s="13"/>
+      <c r="DD9" s="13"/>
+      <c r="DE9" s="13"/>
+      <c r="DF9" s="13"/>
+      <c r="DG9" s="13"/>
+      <c r="DH9" s="13"/>
+      <c r="DI9" s="13"/>
+      <c r="DJ9" s="14"/>
+      <c r="DK9" s="14"/>
+      <c r="DL9" s="14"/>
+      <c r="DM9" s="14"/>
+      <c r="DN9" s="14"/>
+      <c r="DO9" s="14"/>
+      <c r="DP9" s="14"/>
+      <c r="DQ9" s="14"/>
+      <c r="DR9" s="14"/>
+      <c r="DS9" s="14"/>
+      <c r="DT9" s="14"/>
+      <c r="DU9" s="14"/>
+      <c r="DV9" s="14"/>
+      <c r="DW9" s="14"/>
+      <c r="DX9" s="14"/>
+      <c r="DY9" s="14"/>
+      <c r="DZ9" s="14"/>
+      <c r="EA9" s="14"/>
+      <c r="EB9" s="14"/>
+      <c r="EC9" s="14"/>
+      <c r="ED9" s="14"/>
+      <c r="EE9" s="14"/>
+      <c r="EF9" s="14"/>
+      <c r="EG9" s="14"/>
+      <c r="EH9" s="14"/>
+      <c r="EI9" s="14"/>
+      <c r="EJ9" s="14"/>
+      <c r="EK9" s="14"/>
+      <c r="EL9" s="14"/>
+      <c r="EM9" s="14"/>
+      <c r="EN9" s="14"/>
+      <c r="EO9" s="14"/>
+      <c r="EP9" s="14"/>
+      <c r="EQ9" s="14"/>
+      <c r="ER9" s="14"/>
+      <c r="ES9" s="14"/>
+      <c r="ET9" s="14"/>
+      <c r="EU9" s="14"/>
+      <c r="EV9" s="14"/>
+      <c r="EW9" s="14"/>
+      <c r="EX9" s="14"/>
+      <c r="EY9" s="14"/>
+      <c r="EZ9" s="14"/>
+      <c r="FA9" s="14"/>
+      <c r="FB9" s="14"/>
+      <c r="FC9" s="14"/>
+      <c r="FD9" s="14"/>
+      <c r="FE9" s="14"/>
+      <c r="FF9" s="14"/>
+      <c r="FG9" s="14"/>
+      <c r="FH9" s="14"/>
+      <c r="FI9" s="14"/>
+      <c r="FJ9" s="14"/>
+      <c r="FK9" s="14"/>
+      <c r="FL9" s="14"/>
+      <c r="FM9" s="14"/>
+      <c r="FN9" s="14"/>
+      <c r="FO9" s="14"/>
+      <c r="FP9" s="14"/>
+      <c r="FQ9" s="14"/>
+      <c r="FR9" s="14"/>
+      <c r="FS9" s="14"/>
+      <c r="FT9" s="14"/>
+      <c r="FU9" s="14"/>
+      <c r="FV9" s="14"/>
+      <c r="FW9" s="14"/>
+      <c r="FX9" s="14"/>
+      <c r="FY9" s="14"/>
+      <c r="FZ9" s="14"/>
+      <c r="GA9" s="14"/>
+      <c r="GB9" s="14"/>
+      <c r="GC9" s="14"/>
+      <c r="GD9" s="14"/>
+      <c r="GE9" s="14"/>
+      <c r="GF9" s="14"/>
+      <c r="GG9" s="14"/>
+      <c r="GH9" s="14"/>
+      <c r="GI9" s="14"/>
+      <c r="GJ9" s="14"/>
+      <c r="GK9" s="14"/>
+      <c r="GL9" s="14"/>
+      <c r="GM9" s="14"/>
+      <c r="GN9" s="14"/>
+      <c r="GO9" s="14"/>
+      <c r="GP9" s="14"/>
+      <c r="GQ9" s="14"/>
+      <c r="GR9" s="14"/>
+      <c r="GS9" s="14"/>
+      <c r="GT9" s="14"/>
+      <c r="GU9" s="14"/>
+      <c r="GV9" s="14"/>
+      <c r="GW9" s="14"/>
+      <c r="GX9" s="14"/>
+      <c r="GY9" s="14"/>
+      <c r="GZ9" s="14"/>
+      <c r="HA9" s="14"/>
+      <c r="HB9" s="14"/>
+      <c r="HC9" s="14"/>
+      <c r="HD9" s="14"/>
+      <c r="HE9" s="14"/>
+      <c r="HF9" s="14"/>
+      <c r="HG9" s="14"/>
+      <c r="HH9" s="14"/>
+      <c r="HI9" s="14"/>
+      <c r="HJ9" s="14"/>
+      <c r="HK9" s="14"/>
+      <c r="HL9" s="14"/>
+      <c r="HM9" s="14"/>
+      <c r="HN9" s="14"/>
+      <c r="HO9" s="14"/>
+      <c r="HP9" s="14"/>
+      <c r="HQ9" s="14"/>
+      <c r="HR9" s="14"/>
+      <c r="HS9" s="14"/>
+      <c r="HT9" s="14"/>
+      <c r="HU9" s="14"/>
+      <c r="HV9" s="14"/>
+      <c r="HW9" s="14"/>
+      <c r="HX9" s="14"/>
+      <c r="HY9" s="14"/>
+      <c r="HZ9" s="14"/>
+      <c r="IA9" s="14"/>
+      <c r="IB9" s="14"/>
+      <c r="IC9" s="14"/>
+      <c r="ID9" s="14"/>
+      <c r="IE9" s="14"/>
+      <c r="IF9" s="14"/>
+      <c r="IG9" s="14"/>
+      <c r="IH9" s="14"/>
+      <c r="II9" s="14"/>
+    </row>
+    <row r="10" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:243" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
+      <c r="DF10" s="16"/>
+      <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
+      <c r="DI10" s="16"/>
+    </row>
+    <row r="11" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
@@ -6798,9 +6804,9 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:243" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
@@ -6811,22 +6817,10 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="DR12" s="19">
-        <v>1</v>
-      </c>
-      <c r="DS12" s="20"/>
-      <c r="DT12" s="21">
-        <v>1</v>
-      </c>
-      <c r="DU12" s="20"/>
-      <c r="DV12" s="20"/>
-      <c r="DW12" s="20"/>
-      <c r="DX12" s="20"/>
-      <c r="DY12" s="22"/>
-    </row>
-    <row r="13" spans="1:243" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
@@ -6837,20 +6831,22 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="DR13" s="23"/>
-      <c r="DS13" s="24">
-        <v>1</v>
-      </c>
-      <c r="DT13" s="25"/>
-      <c r="DU13" s="25"/>
-      <c r="DV13" s="25"/>
-      <c r="DW13" s="25"/>
-      <c r="DX13" s="25"/>
-      <c r="DY13" s="26"/>
-    </row>
-    <row r="14" spans="1:243" x14ac:dyDescent="0.25">
+      <c r="DR13" s="19">
+        <v>1</v>
+      </c>
+      <c r="DS13" s="20"/>
+      <c r="DT13" s="21">
+        <v>1</v>
+      </c>
+      <c r="DU13" s="20"/>
+      <c r="DV13" s="20"/>
+      <c r="DW13" s="20"/>
+      <c r="DX13" s="20"/>
+      <c r="DY13" s="22"/>
+    </row>
+    <row r="14" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
@@ -6862,19 +6858,19 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="DR14" s="23"/>
-      <c r="DS14" s="25"/>
+      <c r="DS14" s="24">
+        <v>1</v>
+      </c>
       <c r="DT14" s="25"/>
-      <c r="DU14" s="24">
-        <v>1</v>
-      </c>
+      <c r="DU14" s="25"/>
       <c r="DV14" s="25"/>
       <c r="DW14" s="25"/>
       <c r="DX14" s="25"/>
       <c r="DY14" s="26"/>
     </row>
-    <row r="15" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
@@ -6888,17 +6884,17 @@
       <c r="DR15" s="23"/>
       <c r="DS15" s="25"/>
       <c r="DT15" s="25"/>
-      <c r="DU15" s="25"/>
-      <c r="DV15" s="24">
-        <v>1</v>
-      </c>
+      <c r="DU15" s="24">
+        <v>1</v>
+      </c>
+      <c r="DV15" s="25"/>
       <c r="DW15" s="25"/>
       <c r="DX15" s="25"/>
       <c r="DY15" s="26"/>
     </row>
-    <row r="16" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:243" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
@@ -6913,16 +6909,16 @@
       <c r="DS16" s="25"/>
       <c r="DT16" s="25"/>
       <c r="DU16" s="25"/>
-      <c r="DV16" s="25"/>
-      <c r="DW16" s="24">
-        <v>1</v>
-      </c>
+      <c r="DV16" s="24">
+        <v>1</v>
+      </c>
+      <c r="DW16" s="25"/>
       <c r="DX16" s="25"/>
       <c r="DY16" s="26"/>
     </row>
-    <row r="17" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
@@ -6938,15 +6934,15 @@
       <c r="DT17" s="25"/>
       <c r="DU17" s="25"/>
       <c r="DV17" s="25"/>
-      <c r="DW17" s="25"/>
-      <c r="DX17" s="24">
-        <v>1</v>
-      </c>
+      <c r="DW17" s="24">
+        <v>1</v>
+      </c>
+      <c r="DX17" s="25"/>
       <c r="DY17" s="26"/>
     </row>
-    <row r="18" spans="2:165" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
@@ -6957,20 +6953,20 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="DR18" s="27"/>
-      <c r="DS18" s="28"/>
-      <c r="DT18" s="28"/>
-      <c r="DU18" s="28"/>
-      <c r="DV18" s="28"/>
-      <c r="DW18" s="28"/>
-      <c r="DX18" s="28"/>
-      <c r="DY18" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="DR18" s="23"/>
+      <c r="DS18" s="25"/>
+      <c r="DT18" s="25"/>
+      <c r="DU18" s="25"/>
+      <c r="DV18" s="25"/>
+      <c r="DW18" s="25"/>
+      <c r="DX18" s="24">
+        <v>1</v>
+      </c>
+      <c r="DY18" s="26"/>
+    </row>
+    <row r="19" spans="2:165" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
@@ -6981,26 +6977,20 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="EX19" s="19">
-        <v>1</v>
-      </c>
-      <c r="EY19" s="20"/>
-      <c r="EZ19" s="20"/>
-      <c r="FA19" s="20"/>
-      <c r="FB19" s="22"/>
-      <c r="FC19" s="19">
-        <v>1</v>
-      </c>
-      <c r="FD19" s="20"/>
-      <c r="FE19" s="20"/>
-      <c r="FF19" s="20"/>
-      <c r="FG19" s="20"/>
-      <c r="FH19" s="20"/>
-      <c r="FI19" s="22"/>
-    </row>
-    <row r="20" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="DR19" s="27"/>
+      <c r="DS19" s="28"/>
+      <c r="DT19" s="28"/>
+      <c r="DU19" s="28"/>
+      <c r="DV19" s="28"/>
+      <c r="DW19" s="28"/>
+      <c r="DX19" s="28"/>
+      <c r="DY19" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
@@ -7011,24 +7001,26 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="EX20" s="23"/>
-      <c r="EY20" s="25"/>
-      <c r="EZ20" s="25"/>
-      <c r="FA20" s="25"/>
-      <c r="FB20" s="26"/>
-      <c r="FC20" s="23"/>
-      <c r="FD20" s="25"/>
-      <c r="FE20" s="24">
-        <v>1</v>
-      </c>
-      <c r="FF20" s="25"/>
-      <c r="FG20" s="25"/>
-      <c r="FH20" s="25"/>
-      <c r="FI20" s="26"/>
-    </row>
-    <row r="21" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="EX20" s="19">
+        <v>1</v>
+      </c>
+      <c r="EY20" s="20"/>
+      <c r="EZ20" s="20"/>
+      <c r="FA20" s="20"/>
+      <c r="FB20" s="22"/>
+      <c r="FC20" s="19">
+        <v>1</v>
+      </c>
+      <c r="FD20" s="20"/>
+      <c r="FE20" s="20"/>
+      <c r="FF20" s="20"/>
+      <c r="FG20" s="20"/>
+      <c r="FH20" s="20"/>
+      <c r="FI20" s="22"/>
+    </row>
+    <row r="21" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
@@ -7040,25 +7032,23 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="EX21" s="23"/>
-      <c r="EY21" s="24">
-        <v>1</v>
-      </c>
+      <c r="EY21" s="25"/>
       <c r="EZ21" s="25"/>
       <c r="FA21" s="25"/>
       <c r="FB21" s="26"/>
       <c r="FC21" s="23"/>
-      <c r="FD21" s="24">
-        <v>1</v>
-      </c>
-      <c r="FE21" s="25"/>
+      <c r="FD21" s="25"/>
+      <c r="FE21" s="24">
+        <v>1</v>
+      </c>
       <c r="FF21" s="25"/>
       <c r="FG21" s="25"/>
       <c r="FH21" s="25"/>
       <c r="FI21" s="26"/>
     </row>
-    <row r="22" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
@@ -7070,25 +7060,25 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="EX22" s="23"/>
-      <c r="EY22" s="25"/>
-      <c r="EZ22" s="24">
-        <v>1</v>
-      </c>
+      <c r="EY22" s="24">
+        <v>1</v>
+      </c>
+      <c r="EZ22" s="25"/>
       <c r="FA22" s="25"/>
       <c r="FB22" s="26"/>
       <c r="FC22" s="23"/>
-      <c r="FD22" s="25"/>
+      <c r="FD22" s="24">
+        <v>1</v>
+      </c>
       <c r="FE22" s="25"/>
-      <c r="FF22" s="24">
-        <v>1</v>
-      </c>
+      <c r="FF22" s="25"/>
       <c r="FG22" s="25"/>
       <c r="FH22" s="25"/>
       <c r="FI22" s="26"/>
     </row>
-    <row r="23" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
@@ -7101,24 +7091,24 @@
       <c r="I23" s="18"/>
       <c r="EX23" s="23"/>
       <c r="EY23" s="25"/>
-      <c r="EZ23" s="25"/>
-      <c r="FA23" s="24">
-        <v>1</v>
-      </c>
+      <c r="EZ23" s="24">
+        <v>1</v>
+      </c>
+      <c r="FA23" s="25"/>
       <c r="FB23" s="26"/>
       <c r="FC23" s="23"/>
       <c r="FD23" s="25"/>
       <c r="FE23" s="25"/>
-      <c r="FF23" s="25"/>
-      <c r="FG23" s="24">
-        <v>1</v>
-      </c>
+      <c r="FF23" s="24">
+        <v>1</v>
+      </c>
+      <c r="FG23" s="25"/>
       <c r="FH23" s="25"/>
       <c r="FI23" s="26"/>
     </row>
-    <row r="24" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
@@ -7132,21 +7122,23 @@
       <c r="EX24" s="23"/>
       <c r="EY24" s="25"/>
       <c r="EZ24" s="25"/>
-      <c r="FA24" s="25"/>
+      <c r="FA24" s="24">
+        <v>1</v>
+      </c>
       <c r="FB24" s="26"/>
       <c r="FC24" s="23"/>
       <c r="FD24" s="25"/>
       <c r="FE24" s="25"/>
       <c r="FF24" s="25"/>
-      <c r="FG24" s="25"/>
-      <c r="FH24" s="24">
-        <v>1</v>
-      </c>
+      <c r="FG24" s="24">
+        <v>1</v>
+      </c>
+      <c r="FH24" s="25"/>
       <c r="FI24" s="26"/>
     </row>
-    <row r="25" spans="2:165" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="11" t="s">
@@ -7157,26 +7149,24 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="EX25" s="27"/>
-      <c r="EY25" s="28"/>
-      <c r="EZ25" s="28"/>
-      <c r="FA25" s="28"/>
-      <c r="FB25" s="29">
-        <v>1</v>
-      </c>
-      <c r="FC25" s="27"/>
-      <c r="FD25" s="28"/>
-      <c r="FE25" s="28"/>
-      <c r="FF25" s="28"/>
-      <c r="FG25" s="28"/>
-      <c r="FH25" s="28"/>
-      <c r="FI25" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="EX25" s="23"/>
+      <c r="EY25" s="25"/>
+      <c r="EZ25" s="25"/>
+      <c r="FA25" s="25"/>
+      <c r="FB25" s="26"/>
+      <c r="FC25" s="23"/>
+      <c r="FD25" s="25"/>
+      <c r="FE25" s="25"/>
+      <c r="FF25" s="25"/>
+      <c r="FG25" s="25"/>
+      <c r="FH25" s="24">
+        <v>1</v>
+      </c>
+      <c r="FI25" s="26"/>
+    </row>
+    <row r="26" spans="2:165" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="11" t="s">
@@ -7187,102 +7177,84 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="CU26" s="19">
-        <v>1</v>
-      </c>
-      <c r="CV26" s="20"/>
-      <c r="CW26" s="21">
-        <v>1</v>
-      </c>
-      <c r="CX26" s="20"/>
-      <c r="CY26" s="20"/>
-      <c r="CZ26" s="20"/>
-      <c r="DA26" s="20"/>
-      <c r="DB26" s="20"/>
-      <c r="DC26" s="22"/>
-      <c r="DF26" s="19">
-        <v>1</v>
-      </c>
-      <c r="DG26" s="20"/>
-      <c r="DH26" s="21">
-        <v>1</v>
-      </c>
-      <c r="DI26" s="20"/>
-      <c r="DJ26" s="20"/>
-      <c r="DK26" s="20"/>
-      <c r="DL26" s="20"/>
-      <c r="DM26" s="22"/>
-      <c r="DN26" s="30"/>
-      <c r="DO26" s="21">
-        <v>1</v>
-      </c>
-      <c r="DP26" s="20"/>
-      <c r="DQ26" s="22"/>
-      <c r="DZ26" s="19">
-        <v>1</v>
-      </c>
-      <c r="EA26" s="20"/>
-      <c r="EB26" s="21">
-        <v>1</v>
-      </c>
-      <c r="EC26" s="20"/>
-      <c r="ED26" s="20"/>
-      <c r="EE26" s="20"/>
-      <c r="EF26" s="20"/>
-      <c r="EG26" s="20"/>
-      <c r="EH26" s="22"/>
-    </row>
-    <row r="27" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="EX26" s="27"/>
+      <c r="EY26" s="28"/>
+      <c r="EZ26" s="28"/>
+      <c r="FA26" s="28"/>
+      <c r="FB26" s="29">
+        <v>1</v>
+      </c>
+      <c r="FC26" s="27"/>
+      <c r="FD26" s="28"/>
+      <c r="FE26" s="28"/>
+      <c r="FF26" s="28"/>
+      <c r="FG26" s="28"/>
+      <c r="FH26" s="28"/>
+      <c r="FI26" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="CU27" s="23"/>
-      <c r="CV27" s="24">
-        <v>1</v>
-      </c>
-      <c r="CW27" s="25"/>
-      <c r="CX27" s="25"/>
-      <c r="CY27" s="25"/>
-      <c r="CZ27" s="25"/>
-      <c r="DA27" s="25"/>
-      <c r="DB27" s="25"/>
-      <c r="DC27" s="26"/>
-      <c r="DF27" s="23"/>
-      <c r="DG27" s="24">
-        <v>1</v>
-      </c>
-      <c r="DH27" s="25"/>
-      <c r="DI27" s="25"/>
-      <c r="DJ27" s="25"/>
-      <c r="DK27" s="25"/>
-      <c r="DL27" s="25"/>
-      <c r="DM27" s="26"/>
-      <c r="DN27" s="32">
-        <v>1</v>
-      </c>
-      <c r="DO27" s="25"/>
-      <c r="DP27" s="25"/>
-      <c r="DQ27" s="26"/>
-      <c r="DZ27" s="23"/>
-      <c r="EA27" s="24">
-        <v>1</v>
-      </c>
-      <c r="EB27" s="25"/>
-      <c r="EC27" s="25"/>
-      <c r="ED27" s="25"/>
-      <c r="EE27" s="25"/>
-      <c r="EF27" s="25"/>
-      <c r="EG27" s="25"/>
-      <c r="EH27" s="26"/>
-    </row>
-    <row r="28" spans="2:165" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="CU27" s="19">
+        <v>1</v>
+      </c>
+      <c r="CV27" s="20"/>
+      <c r="CW27" s="21">
+        <v>1</v>
+      </c>
+      <c r="CX27" s="20"/>
+      <c r="CY27" s="20"/>
+      <c r="CZ27" s="20"/>
+      <c r="DA27" s="20"/>
+      <c r="DB27" s="20"/>
+      <c r="DC27" s="22"/>
+      <c r="DF27" s="19">
+        <v>1</v>
+      </c>
+      <c r="DG27" s="20"/>
+      <c r="DH27" s="21">
+        <v>1</v>
+      </c>
+      <c r="DI27" s="20"/>
+      <c r="DJ27" s="20"/>
+      <c r="DK27" s="20"/>
+      <c r="DL27" s="20"/>
+      <c r="DM27" s="22"/>
+      <c r="DN27" s="30"/>
+      <c r="DO27" s="21">
+        <v>1</v>
+      </c>
+      <c r="DP27" s="20"/>
+      <c r="DQ27" s="22"/>
+      <c r="DZ27" s="19">
+        <v>1</v>
+      </c>
+      <c r="EA27" s="20"/>
+      <c r="EB27" s="21">
+        <v>1</v>
+      </c>
+      <c r="EC27" s="20"/>
+      <c r="ED27" s="20"/>
+      <c r="EE27" s="20"/>
+      <c r="EF27" s="20"/>
+      <c r="EG27" s="20"/>
+      <c r="EH27" s="22"/>
+    </row>
+    <row r="28" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="11" t="s">
@@ -7290,43 +7262,47 @@
       </c>
       <c r="E28" s="31"/>
       <c r="CU28" s="23"/>
-      <c r="CV28" s="25"/>
+      <c r="CV28" s="24">
+        <v>1</v>
+      </c>
       <c r="CW28" s="25"/>
-      <c r="CX28" s="24">
-        <v>1</v>
-      </c>
+      <c r="CX28" s="25"/>
       <c r="CY28" s="25"/>
       <c r="CZ28" s="25"/>
       <c r="DA28" s="25"/>
       <c r="DB28" s="25"/>
       <c r="DC28" s="26"/>
       <c r="DF28" s="23"/>
-      <c r="DG28" s="25"/>
+      <c r="DG28" s="24">
+        <v>1</v>
+      </c>
       <c r="DH28" s="25"/>
       <c r="DI28" s="25"/>
       <c r="DJ28" s="25"/>
       <c r="DK28" s="25"/>
       <c r="DL28" s="25"/>
       <c r="DM28" s="26"/>
-      <c r="DN28" s="25"/>
+      <c r="DN28" s="32">
+        <v>1</v>
+      </c>
       <c r="DO28" s="25"/>
       <c r="DP28" s="25"/>
       <c r="DQ28" s="26"/>
       <c r="DZ28" s="23"/>
-      <c r="EA28" s="25"/>
+      <c r="EA28" s="24">
+        <v>1</v>
+      </c>
       <c r="EB28" s="25"/>
-      <c r="EC28" s="24">
-        <v>1</v>
-      </c>
+      <c r="EC28" s="25"/>
       <c r="ED28" s="25"/>
       <c r="EE28" s="25"/>
       <c r="EF28" s="25"/>
       <c r="EG28" s="25"/>
       <c r="EH28" s="26"/>
     </row>
-    <row r="29" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="11" t="s">
@@ -7336,51 +7312,41 @@
       <c r="CU29" s="23"/>
       <c r="CV29" s="25"/>
       <c r="CW29" s="25"/>
-      <c r="CX29" s="25"/>
-      <c r="CY29" s="24">
-        <v>1</v>
-      </c>
+      <c r="CX29" s="24">
+        <v>1</v>
+      </c>
+      <c r="CY29" s="25"/>
       <c r="CZ29" s="25"/>
       <c r="DA29" s="25"/>
       <c r="DB29" s="25"/>
       <c r="DC29" s="26"/>
-      <c r="DD29" s="24">
-        <v>1</v>
-      </c>
-      <c r="DE29" s="24">
-        <v>1</v>
-      </c>
       <c r="DF29" s="23"/>
       <c r="DG29" s="25"/>
       <c r="DH29" s="25"/>
-      <c r="DI29" s="24">
-        <v>1</v>
-      </c>
+      <c r="DI29" s="25"/>
       <c r="DJ29" s="25"/>
       <c r="DK29" s="25"/>
       <c r="DL29" s="25"/>
       <c r="DM29" s="26"/>
-      <c r="DN29" s="23"/>
+      <c r="DN29" s="25"/>
       <c r="DO29" s="25"/>
-      <c r="DP29" s="24">
-        <v>1</v>
-      </c>
+      <c r="DP29" s="25"/>
       <c r="DQ29" s="26"/>
       <c r="DZ29" s="23"/>
       <c r="EA29" s="25"/>
       <c r="EB29" s="25"/>
-      <c r="EC29" s="25"/>
-      <c r="ED29" s="24">
-        <v>1</v>
-      </c>
+      <c r="EC29" s="24">
+        <v>1</v>
+      </c>
+      <c r="ED29" s="25"/>
       <c r="EE29" s="25"/>
       <c r="EF29" s="25"/>
       <c r="EG29" s="25"/>
       <c r="EH29" s="26"/>
     </row>
-    <row r="30" spans="2:165" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="11" t="s">
@@ -7391,44 +7357,50 @@
       <c r="CV30" s="25"/>
       <c r="CW30" s="25"/>
       <c r="CX30" s="25"/>
-      <c r="CY30" s="25"/>
-      <c r="CZ30" s="24">
-        <v>1</v>
-      </c>
+      <c r="CY30" s="24">
+        <v>1</v>
+      </c>
+      <c r="CZ30" s="25"/>
       <c r="DA30" s="25"/>
       <c r="DB30" s="25"/>
       <c r="DC30" s="26"/>
+      <c r="DD30" s="24">
+        <v>1</v>
+      </c>
+      <c r="DE30" s="24">
+        <v>1</v>
+      </c>
       <c r="DF30" s="23"/>
       <c r="DG30" s="25"/>
       <c r="DH30" s="25"/>
-      <c r="DI30" s="25"/>
-      <c r="DJ30" s="24">
-        <v>1</v>
-      </c>
+      <c r="DI30" s="24">
+        <v>1</v>
+      </c>
+      <c r="DJ30" s="25"/>
       <c r="DK30" s="25"/>
       <c r="DL30" s="25"/>
       <c r="DM30" s="26"/>
-      <c r="DN30" s="27"/>
-      <c r="DO30" s="28"/>
-      <c r="DP30" s="28"/>
-      <c r="DQ30" s="29">
-        <v>1</v>
-      </c>
+      <c r="DN30" s="23"/>
+      <c r="DO30" s="25"/>
+      <c r="DP30" s="24">
+        <v>1</v>
+      </c>
+      <c r="DQ30" s="26"/>
       <c r="DZ30" s="23"/>
       <c r="EA30" s="25"/>
       <c r="EB30" s="25"/>
       <c r="EC30" s="25"/>
-      <c r="ED30" s="25"/>
-      <c r="EE30" s="24">
-        <v>1</v>
-      </c>
+      <c r="ED30" s="24">
+        <v>1</v>
+      </c>
+      <c r="EE30" s="25"/>
       <c r="EF30" s="25"/>
       <c r="EG30" s="25"/>
       <c r="EH30" s="26"/>
     </row>
-    <row r="31" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:165" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="11" t="s">
@@ -7440,37 +7412,43 @@
       <c r="CW31" s="25"/>
       <c r="CX31" s="25"/>
       <c r="CY31" s="25"/>
-      <c r="CZ31" s="25"/>
-      <c r="DA31" s="24">
-        <v>1</v>
-      </c>
+      <c r="CZ31" s="24">
+        <v>1</v>
+      </c>
+      <c r="DA31" s="25"/>
       <c r="DB31" s="25"/>
       <c r="DC31" s="26"/>
       <c r="DF31" s="23"/>
       <c r="DG31" s="25"/>
       <c r="DH31" s="25"/>
       <c r="DI31" s="25"/>
-      <c r="DJ31" s="25"/>
-      <c r="DK31" s="24">
-        <v>1</v>
-      </c>
+      <c r="DJ31" s="24">
+        <v>1</v>
+      </c>
+      <c r="DK31" s="25"/>
       <c r="DL31" s="25"/>
       <c r="DM31" s="26"/>
+      <c r="DN31" s="27"/>
+      <c r="DO31" s="28"/>
+      <c r="DP31" s="28"/>
+      <c r="DQ31" s="29">
+        <v>1</v>
+      </c>
       <c r="DZ31" s="23"/>
       <c r="EA31" s="25"/>
       <c r="EB31" s="25"/>
       <c r="EC31" s="25"/>
       <c r="ED31" s="25"/>
-      <c r="EE31" s="25"/>
-      <c r="EF31" s="24">
-        <v>1</v>
-      </c>
+      <c r="EE31" s="24">
+        <v>1</v>
+      </c>
+      <c r="EF31" s="25"/>
       <c r="EG31" s="25"/>
       <c r="EH31" s="26"/>
     </row>
-    <row r="32" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="11" t="s">
@@ -7483,20 +7461,20 @@
       <c r="CX32" s="25"/>
       <c r="CY32" s="25"/>
       <c r="CZ32" s="25"/>
-      <c r="DA32" s="25"/>
-      <c r="DB32" s="24">
-        <v>1</v>
-      </c>
+      <c r="DA32" s="24">
+        <v>1</v>
+      </c>
+      <c r="DB32" s="25"/>
       <c r="DC32" s="26"/>
       <c r="DF32" s="23"/>
       <c r="DG32" s="25"/>
       <c r="DH32" s="25"/>
       <c r="DI32" s="25"/>
       <c r="DJ32" s="25"/>
-      <c r="DK32" s="25"/>
-      <c r="DL32" s="24">
-        <v>1</v>
-      </c>
+      <c r="DK32" s="24">
+        <v>1</v>
+      </c>
+      <c r="DL32" s="25"/>
       <c r="DM32" s="26"/>
       <c r="DZ32" s="23"/>
       <c r="EA32" s="25"/>
@@ -7504,89 +7482,115 @@
       <c r="EC32" s="25"/>
       <c r="ED32" s="25"/>
       <c r="EE32" s="25"/>
-      <c r="EF32" s="25"/>
-      <c r="EG32" s="24">
-        <v>1</v>
-      </c>
+      <c r="EF32" s="24">
+        <v>1</v>
+      </c>
+      <c r="EG32" s="25"/>
       <c r="EH32" s="26"/>
     </row>
-    <row r="33" spans="2:238" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="CU33" s="27"/>
-      <c r="CV33" s="28"/>
-      <c r="CW33" s="28"/>
-      <c r="CX33" s="28"/>
-      <c r="CY33" s="28"/>
-      <c r="CZ33" s="28"/>
-      <c r="DA33" s="28"/>
-      <c r="DB33" s="28"/>
-      <c r="DC33" s="29">
-        <v>1</v>
-      </c>
-      <c r="DF33" s="27"/>
-      <c r="DG33" s="28"/>
-      <c r="DH33" s="28"/>
-      <c r="DI33" s="28"/>
-      <c r="DJ33" s="28"/>
-      <c r="DK33" s="28"/>
-      <c r="DL33" s="28"/>
-      <c r="DM33" s="29">
-        <v>1</v>
-      </c>
-      <c r="DZ33" s="27"/>
-      <c r="EA33" s="28"/>
-      <c r="EB33" s="28"/>
-      <c r="EC33" s="28"/>
-      <c r="ED33" s="28"/>
-      <c r="EE33" s="28"/>
-      <c r="EF33" s="28"/>
-      <c r="EG33" s="28"/>
-      <c r="EH33" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="CU33" s="23"/>
+      <c r="CV33" s="25"/>
+      <c r="CW33" s="25"/>
+      <c r="CX33" s="25"/>
+      <c r="CY33" s="25"/>
+      <c r="CZ33" s="25"/>
+      <c r="DA33" s="25"/>
+      <c r="DB33" s="24">
+        <v>1</v>
+      </c>
+      <c r="DC33" s="26"/>
+      <c r="DF33" s="23"/>
+      <c r="DG33" s="25"/>
+      <c r="DH33" s="25"/>
+      <c r="DI33" s="25"/>
+      <c r="DJ33" s="25"/>
+      <c r="DK33" s="25"/>
+      <c r="DL33" s="24">
+        <v>1</v>
+      </c>
+      <c r="DM33" s="26"/>
+      <c r="DZ33" s="23"/>
+      <c r="EA33" s="25"/>
+      <c r="EB33" s="25"/>
+      <c r="EC33" s="25"/>
+      <c r="ED33" s="25"/>
+      <c r="EE33" s="25"/>
+      <c r="EF33" s="25"/>
+      <c r="EG33" s="24">
+        <v>1</v>
+      </c>
+      <c r="EH33" s="26"/>
+    </row>
+    <row r="34" spans="2:238" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E34" s="31"/>
-      <c r="IA34" s="19">
-        <v>1</v>
-      </c>
-      <c r="IB34" s="20"/>
-      <c r="IC34" s="20"/>
-      <c r="ID34" s="22"/>
-    </row>
-    <row r="35" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="CU34" s="27"/>
+      <c r="CV34" s="28"/>
+      <c r="CW34" s="28"/>
+      <c r="CX34" s="28"/>
+      <c r="CY34" s="28"/>
+      <c r="CZ34" s="28"/>
+      <c r="DA34" s="28"/>
+      <c r="DB34" s="28"/>
+      <c r="DC34" s="29">
+        <v>1</v>
+      </c>
+      <c r="DF34" s="27"/>
+      <c r="DG34" s="28"/>
+      <c r="DH34" s="28"/>
+      <c r="DI34" s="28"/>
+      <c r="DJ34" s="28"/>
+      <c r="DK34" s="28"/>
+      <c r="DL34" s="28"/>
+      <c r="DM34" s="29">
+        <v>1</v>
+      </c>
+      <c r="DZ34" s="27"/>
+      <c r="EA34" s="28"/>
+      <c r="EB34" s="28"/>
+      <c r="EC34" s="28"/>
+      <c r="ED34" s="28"/>
+      <c r="EE34" s="28"/>
+      <c r="EF34" s="28"/>
+      <c r="EG34" s="28"/>
+      <c r="EH34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="IA35" s="23"/>
-      <c r="IB35" s="24">
-        <v>1</v>
-      </c>
-      <c r="IC35" s="25"/>
-      <c r="ID35" s="26"/>
-    </row>
-    <row r="36" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="IA35" s="19">
+        <v>1</v>
+      </c>
+      <c r="IB35" s="20"/>
+      <c r="IC35" s="20"/>
+      <c r="ID35" s="22"/>
+    </row>
+    <row r="36" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="11" t="s">
@@ -7594,172 +7598,138 @@
       </c>
       <c r="E36" s="31"/>
       <c r="IA36" s="23"/>
-      <c r="IB36" s="25"/>
-      <c r="IC36" s="24">
-        <v>1</v>
-      </c>
+      <c r="IB36" s="24">
+        <v>1</v>
+      </c>
+      <c r="IC36" s="25"/>
       <c r="ID36" s="26"/>
     </row>
-    <row r="37" spans="2:238" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E37" s="31"/>
-      <c r="IA37" s="27"/>
-      <c r="IB37" s="28"/>
-      <c r="IC37" s="28"/>
-      <c r="ID37" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="IA37" s="23"/>
+      <c r="IB37" s="25"/>
+      <c r="IC37" s="24">
+        <v>1</v>
+      </c>
+      <c r="ID37" s="26"/>
+    </row>
+    <row r="38" spans="2:238" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E38" s="19">
-        <v>1</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="19">
-        <v>1</v>
-      </c>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="19">
-        <v>1</v>
-      </c>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="22"/>
-    </row>
-    <row r="39" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="E38" s="31"/>
+      <c r="IA38" s="27"/>
+      <c r="IB38" s="28"/>
+      <c r="IC38" s="28"/>
+      <c r="ID38" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24">
-        <v>1</v>
-      </c>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="26"/>
-    </row>
-    <row r="40" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21">
+        <v>1</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="19">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="19">
+        <v>1</v>
+      </c>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="22"/>
+    </row>
+    <row r="40" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E40" s="23"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
       <c r="G40" s="25"/>
-      <c r="H40" s="24">
-        <v>1</v>
-      </c>
+      <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="26"/>
       <c r="N40" s="23"/>
-      <c r="O40" s="25"/>
+      <c r="O40" s="24">
+        <v>1</v>
+      </c>
       <c r="P40" s="25"/>
-      <c r="Q40" s="24">
-        <v>1</v>
-      </c>
+      <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="26"/>
       <c r="W40" s="23"/>
-      <c r="X40" s="25"/>
+      <c r="X40" s="24">
+        <v>1</v>
+      </c>
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
       <c r="AA40" s="25"/>
@@ -7767,20 +7737,20 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="23"/>
-      <c r="AF40" s="25"/>
+      <c r="AF40" s="24">
+        <v>1</v>
+      </c>
       <c r="AG40" s="25"/>
-      <c r="AH40" s="24">
-        <v>1</v>
-      </c>
+      <c r="AH40" s="25"/>
       <c r="AI40" s="25"/>
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
       <c r="AL40" s="25"/>
       <c r="AM40" s="26"/>
     </row>
-    <row r="41" spans="2:238" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="11" t="s">
@@ -7789,10 +7759,10 @@
       <c r="E41" s="23"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="24">
-        <v>1</v>
-      </c>
+      <c r="H41" s="24">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -7800,10 +7770,10 @@
       <c r="N41" s="23"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="24">
-        <v>1</v>
-      </c>
+      <c r="Q41" s="24">
+        <v>1</v>
+      </c>
+      <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
@@ -7811,9 +7781,7 @@
       <c r="W41" s="23"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
-      <c r="Z41" s="24">
-        <v>1</v>
-      </c>
+      <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
       <c r="AC41" s="25"/>
@@ -7821,18 +7789,18 @@
       <c r="AE41" s="23"/>
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="24">
-        <v>1</v>
-      </c>
+      <c r="AH41" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="25"/>
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
       <c r="AL41" s="25"/>
       <c r="AM41" s="26"/>
     </row>
-    <row r="42" spans="2:238" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="11" t="s">
@@ -7842,10 +7810,10 @@
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="24">
-        <v>1</v>
-      </c>
+      <c r="I42" s="24">
+        <v>1</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="26"/>
@@ -7853,20 +7821,20 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="24">
-        <v>1</v>
-      </c>
+      <c r="R42" s="24">
+        <v>1</v>
+      </c>
+      <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
       <c r="V42" s="26"/>
       <c r="W42" s="23"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="24">
-        <v>1</v>
-      </c>
+      <c r="Z42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
       <c r="AD42" s="26"/>
@@ -7874,17 +7842,17 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
       <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="24">
-        <v>1</v>
-      </c>
+      <c r="AI42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="25"/>
       <c r="AM42" s="26"/>
     </row>
-    <row r="43" spans="2:238" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="11" t="s">
@@ -7895,10 +7863,10 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="24">
-        <v>1</v>
-      </c>
+      <c r="J43" s="24">
+        <v>1</v>
+      </c>
+      <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="26"/>
       <c r="N43" s="23"/>
@@ -7906,20 +7874,20 @@
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="24">
-        <v>1</v>
-      </c>
+      <c r="S43" s="24">
+        <v>1</v>
+      </c>
+      <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="26"/>
       <c r="W43" s="23"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="24">
-        <v>1</v>
-      </c>
+      <c r="AA43" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="25"/>
       <c r="AC43" s="25"/>
       <c r="AD43" s="26"/>
       <c r="AE43" s="23"/>
@@ -7927,16 +7895,16 @@
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="24">
-        <v>1</v>
-      </c>
+      <c r="AJ43" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="25"/>
       <c r="AL43" s="25"/>
       <c r="AM43" s="26"/>
     </row>
-    <row r="44" spans="2:238" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="11" t="s">
@@ -7948,10 +7916,10 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="24">
-        <v>1</v>
-      </c>
+      <c r="K44" s="24">
+        <v>1</v>
+      </c>
+      <c r="L44" s="25"/>
       <c r="M44" s="26"/>
       <c r="N44" s="23"/>
       <c r="O44" s="25"/>
@@ -7959,20 +7927,20 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="24">
-        <v>1</v>
-      </c>
+      <c r="T44" s="24">
+        <v>1</v>
+      </c>
+      <c r="U44" s="25"/>
       <c r="V44" s="26"/>
       <c r="W44" s="23"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="24">
-        <v>1</v>
-      </c>
+      <c r="AB44" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="25"/>
       <c r="AD44" s="26"/>
       <c r="AE44" s="23"/>
       <c r="AF44" s="25"/>
@@ -7980,181 +7948,180 @@
       <c r="AH44" s="25"/>
       <c r="AI44" s="25"/>
       <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="24">
-        <v>1</v>
-      </c>
+      <c r="AK44" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="25"/>
       <c r="AM44" s="26"/>
     </row>
-    <row r="45" spans="2:238" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29">
-        <v>1</v>
-      </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="29">
-        <v>1</v>
-      </c>
-      <c r="W45" s="27"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
-      <c r="AK45" s="28"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="E45" s="23"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="24">
+        <v>1</v>
+      </c>
+      <c r="M45" s="26"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="24">
+        <v>1</v>
+      </c>
+      <c r="V45" s="26"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="26"/>
+    </row>
+    <row r="46" spans="2:238" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="AN46" s="19">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="20"/>
-      <c r="AP46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46" s="22"/>
-      <c r="AV46" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW46" s="20"/>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AZ46" s="20"/>
-      <c r="BA46" s="20"/>
-      <c r="BB46" s="20"/>
-      <c r="BC46" s="20"/>
-      <c r="BD46" s="22"/>
-      <c r="BE46" s="19">
-        <v>1</v>
-      </c>
-      <c r="BF46" s="20"/>
-      <c r="BG46" s="21">
-        <v>1</v>
-      </c>
-      <c r="BH46" s="20"/>
-      <c r="BI46" s="20"/>
-      <c r="BJ46" s="20"/>
-      <c r="BK46" s="20"/>
-      <c r="BL46" s="20"/>
-      <c r="BM46" s="22"/>
-      <c r="BN46" s="19">
-        <v>1</v>
-      </c>
-      <c r="BO46" s="20"/>
-      <c r="BP46" s="21">
-        <v>1</v>
-      </c>
-      <c r="BQ46" s="20"/>
-      <c r="BR46" s="20"/>
-      <c r="BS46" s="20"/>
-      <c r="BT46" s="20"/>
-      <c r="BU46" s="20"/>
-      <c r="BV46" s="22"/>
-    </row>
-    <row r="47" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29">
+        <v>1</v>
+      </c>
+      <c r="N46" s="27"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="29">
+        <v>1</v>
+      </c>
+      <c r="W46" s="27"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E47" s="31"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="25"/>
-      <c r="AR47" s="25"/>
-      <c r="AS47" s="25"/>
-      <c r="AT47" s="25"/>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="24">
-        <v>1</v>
-      </c>
-      <c r="AX47" s="25"/>
-      <c r="AY47" s="25"/>
-      <c r="AZ47" s="25"/>
-      <c r="BA47" s="25"/>
-      <c r="BB47" s="25"/>
-      <c r="BC47" s="25"/>
-      <c r="BD47" s="26"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="24">
-        <v>1</v>
-      </c>
-      <c r="BG47" s="25"/>
-      <c r="BH47" s="25"/>
-      <c r="BI47" s="25"/>
-      <c r="BJ47" s="25"/>
-      <c r="BK47" s="25"/>
-      <c r="BL47" s="25"/>
-      <c r="BM47" s="26"/>
-      <c r="BN47" s="23"/>
-      <c r="BO47" s="24">
-        <v>1</v>
-      </c>
-      <c r="BP47" s="25"/>
-      <c r="BQ47" s="25"/>
-      <c r="BR47" s="25"/>
-      <c r="BS47" s="25"/>
-      <c r="BT47" s="25"/>
-      <c r="BU47" s="25"/>
-      <c r="BV47" s="26"/>
-    </row>
-    <row r="48" spans="2:238" x14ac:dyDescent="0.25">
+      <c r="AN47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20"/>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20"/>
+      <c r="AY47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="19">
+        <v>1</v>
+      </c>
+      <c r="BF47" s="20"/>
+      <c r="BG47" s="21">
+        <v>1</v>
+      </c>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20"/>
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="19">
+        <v>1</v>
+      </c>
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="21">
+        <v>1</v>
+      </c>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20"/>
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="22"/>
+    </row>
+    <row r="48" spans="2:238" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="11" t="s">
@@ -8162,7 +8129,9 @@
       </c>
       <c r="E48" s="31"/>
       <c r="AN48" s="23"/>
-      <c r="AO48" s="25"/>
+      <c r="AO48" s="24">
+        <v>1</v>
+      </c>
       <c r="AP48" s="25"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="25"/>
@@ -8170,10 +8139,10 @@
       <c r="AT48" s="25"/>
       <c r="AU48" s="26"/>
       <c r="AV48" s="23"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="24">
-        <v>1</v>
-      </c>
+      <c r="AW48" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="25"/>
       <c r="AY48" s="25"/>
       <c r="AZ48" s="25"/>
       <c r="BA48" s="25"/>
@@ -8181,31 +8150,31 @@
       <c r="BC48" s="25"/>
       <c r="BD48" s="26"/>
       <c r="BE48" s="23"/>
-      <c r="BF48" s="25"/>
+      <c r="BF48" s="24">
+        <v>1</v>
+      </c>
       <c r="BG48" s="25"/>
-      <c r="BH48" s="24">
-        <v>1</v>
-      </c>
+      <c r="BH48" s="25"/>
       <c r="BI48" s="25"/>
       <c r="BJ48" s="25"/>
       <c r="BK48" s="25"/>
       <c r="BL48" s="25"/>
       <c r="BM48" s="26"/>
       <c r="BN48" s="23"/>
-      <c r="BO48" s="25"/>
+      <c r="BO48" s="24">
+        <v>1</v>
+      </c>
       <c r="BP48" s="25"/>
-      <c r="BQ48" s="24">
-        <v>1</v>
-      </c>
+      <c r="BQ48" s="25"/>
       <c r="BR48" s="25"/>
       <c r="BS48" s="25"/>
       <c r="BT48" s="25"/>
       <c r="BU48" s="25"/>
       <c r="BV48" s="26"/>
     </row>
-    <row r="49" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="11" t="s">
@@ -8215,20 +8184,18 @@
       <c r="AN49" s="23"/>
       <c r="AO49" s="25"/>
       <c r="AP49" s="25"/>
-      <c r="AQ49" s="24">
-        <v>1</v>
-      </c>
+      <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
       <c r="AT49" s="25"/>
       <c r="AU49" s="26"/>
       <c r="AV49" s="23"/>
       <c r="AW49" s="25"/>
-      <c r="AX49" s="25"/>
+      <c r="AX49" s="24">
+        <v>1</v>
+      </c>
       <c r="AY49" s="25"/>
-      <c r="AZ49" s="24">
-        <v>1</v>
-      </c>
+      <c r="AZ49" s="25"/>
       <c r="BA49" s="25"/>
       <c r="BB49" s="25"/>
       <c r="BC49" s="25"/>
@@ -8236,10 +8203,10 @@
       <c r="BE49" s="23"/>
       <c r="BF49" s="25"/>
       <c r="BG49" s="25"/>
-      <c r="BH49" s="25"/>
-      <c r="BI49" s="24">
-        <v>1</v>
-      </c>
+      <c r="BH49" s="24">
+        <v>1</v>
+      </c>
+      <c r="BI49" s="25"/>
       <c r="BJ49" s="25"/>
       <c r="BK49" s="25"/>
       <c r="BL49" s="25"/>
@@ -8247,18 +8214,18 @@
       <c r="BN49" s="23"/>
       <c r="BO49" s="25"/>
       <c r="BP49" s="25"/>
-      <c r="BQ49" s="25"/>
-      <c r="BR49" s="24">
-        <v>1</v>
-      </c>
+      <c r="BQ49" s="24">
+        <v>1</v>
+      </c>
+      <c r="BR49" s="25"/>
       <c r="BS49" s="25"/>
       <c r="BT49" s="25"/>
       <c r="BU49" s="25"/>
       <c r="BV49" s="26"/>
     </row>
-    <row r="50" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="11" t="s">
@@ -8268,10 +8235,10 @@
       <c r="AN50" s="23"/>
       <c r="AO50" s="25"/>
       <c r="AP50" s="25"/>
-      <c r="AQ50" s="25"/>
-      <c r="AR50" s="24">
-        <v>1</v>
-      </c>
+      <c r="AQ50" s="24">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
       <c r="AT50" s="25"/>
       <c r="AU50" s="26"/>
@@ -8279,10 +8246,10 @@
       <c r="AW50" s="25"/>
       <c r="AX50" s="25"/>
       <c r="AY50" s="25"/>
-      <c r="AZ50" s="25"/>
-      <c r="BA50" s="24">
-        <v>1</v>
-      </c>
+      <c r="AZ50" s="24">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="25"/>
       <c r="BB50" s="25"/>
       <c r="BC50" s="25"/>
       <c r="BD50" s="26"/>
@@ -8290,10 +8257,10 @@
       <c r="BF50" s="25"/>
       <c r="BG50" s="25"/>
       <c r="BH50" s="25"/>
-      <c r="BI50" s="25"/>
-      <c r="BJ50" s="24">
-        <v>1</v>
-      </c>
+      <c r="BI50" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ50" s="25"/>
       <c r="BK50" s="25"/>
       <c r="BL50" s="25"/>
       <c r="BM50" s="26"/>
@@ -8301,17 +8268,17 @@
       <c r="BO50" s="25"/>
       <c r="BP50" s="25"/>
       <c r="BQ50" s="25"/>
-      <c r="BR50" s="25"/>
-      <c r="BS50" s="24">
-        <v>1</v>
-      </c>
+      <c r="BR50" s="24">
+        <v>1</v>
+      </c>
+      <c r="BS50" s="25"/>
       <c r="BT50" s="25"/>
       <c r="BU50" s="25"/>
       <c r="BV50" s="26"/>
     </row>
-    <row r="51" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="11" t="s">
@@ -8322,10 +8289,10 @@
       <c r="AO51" s="25"/>
       <c r="AP51" s="25"/>
       <c r="AQ51" s="25"/>
-      <c r="AR51" s="25"/>
-      <c r="AS51" s="24">
-        <v>1</v>
-      </c>
+      <c r="AR51" s="24">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="25"/>
       <c r="AT51" s="25"/>
       <c r="AU51" s="26"/>
       <c r="AV51" s="23"/>
@@ -8333,10 +8300,10 @@
       <c r="AX51" s="25"/>
       <c r="AY51" s="25"/>
       <c r="AZ51" s="25"/>
-      <c r="BA51" s="25"/>
-      <c r="BB51" s="24">
-        <v>1</v>
-      </c>
+      <c r="BA51" s="24">
+        <v>1</v>
+      </c>
+      <c r="BB51" s="25"/>
       <c r="BC51" s="25"/>
       <c r="BD51" s="26"/>
       <c r="BE51" s="23"/>
@@ -8344,10 +8311,10 @@
       <c r="BG51" s="25"/>
       <c r="BH51" s="25"/>
       <c r="BI51" s="25"/>
-      <c r="BJ51" s="25"/>
-      <c r="BK51" s="24">
-        <v>1</v>
-      </c>
+      <c r="BJ51" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK51" s="25"/>
       <c r="BL51" s="25"/>
       <c r="BM51" s="26"/>
       <c r="BN51" s="23"/>
@@ -8355,16 +8322,16 @@
       <c r="BP51" s="25"/>
       <c r="BQ51" s="25"/>
       <c r="BR51" s="25"/>
-      <c r="BS51" s="25"/>
-      <c r="BT51" s="24">
-        <v>1</v>
-      </c>
+      <c r="BS51" s="24">
+        <v>1</v>
+      </c>
+      <c r="BT51" s="25"/>
       <c r="BU51" s="25"/>
       <c r="BV51" s="26"/>
     </row>
-    <row r="52" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="11" t="s">
@@ -8376,10 +8343,10 @@
       <c r="AP52" s="25"/>
       <c r="AQ52" s="25"/>
       <c r="AR52" s="25"/>
-      <c r="AS52" s="25"/>
-      <c r="AT52" s="24">
-        <v>1</v>
-      </c>
+      <c r="AS52" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="25"/>
       <c r="AU52" s="26"/>
       <c r="AV52" s="23"/>
       <c r="AW52" s="25"/>
@@ -8387,10 +8354,10 @@
       <c r="AY52" s="25"/>
       <c r="AZ52" s="25"/>
       <c r="BA52" s="25"/>
-      <c r="BB52" s="25"/>
-      <c r="BC52" s="24">
-        <v>1</v>
-      </c>
+      <c r="BB52" s="24">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="25"/>
       <c r="BD52" s="26"/>
       <c r="BE52" s="23"/>
       <c r="BF52" s="25"/>
@@ -8398,10 +8365,10 @@
       <c r="BH52" s="25"/>
       <c r="BI52" s="25"/>
       <c r="BJ52" s="25"/>
-      <c r="BK52" s="25"/>
-      <c r="BL52" s="24">
-        <v>1</v>
-      </c>
+      <c r="BK52" s="24">
+        <v>1</v>
+      </c>
+      <c r="BL52" s="25"/>
       <c r="BM52" s="26"/>
       <c r="BN52" s="23"/>
       <c r="BO52" s="25"/>
@@ -8409,300 +8376,234 @@
       <c r="BQ52" s="25"/>
       <c r="BR52" s="25"/>
       <c r="BS52" s="25"/>
-      <c r="BT52" s="25"/>
-      <c r="BU52" s="24">
-        <v>1</v>
-      </c>
+      <c r="BT52" s="24">
+        <v>1</v>
+      </c>
+      <c r="BU52" s="25"/>
       <c r="BV52" s="26"/>
     </row>
-    <row r="53" spans="2:187" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E53" s="31"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="28"/>
-      <c r="AP53" s="28"/>
-      <c r="AQ53" s="28"/>
-      <c r="AR53" s="28"/>
-      <c r="AS53" s="28"/>
-      <c r="AT53" s="28"/>
-      <c r="AU53" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV53" s="27"/>
-      <c r="AW53" s="28"/>
-      <c r="AX53" s="28"/>
-      <c r="AY53" s="28"/>
-      <c r="AZ53" s="28"/>
-      <c r="BA53" s="28"/>
-      <c r="BB53" s="28"/>
-      <c r="BC53" s="28"/>
-      <c r="BD53" s="29">
-        <v>1</v>
-      </c>
-      <c r="BE53" s="27"/>
-      <c r="BF53" s="28"/>
-      <c r="BG53" s="28"/>
-      <c r="BH53" s="28"/>
-      <c r="BI53" s="28"/>
-      <c r="BJ53" s="28"/>
-      <c r="BK53" s="28"/>
-      <c r="BL53" s="28"/>
-      <c r="BM53" s="29">
-        <v>1</v>
-      </c>
-      <c r="BN53" s="27"/>
-      <c r="BO53" s="28"/>
-      <c r="BP53" s="28"/>
-      <c r="BQ53" s="28"/>
-      <c r="BR53" s="28"/>
-      <c r="BS53" s="28"/>
-      <c r="BT53" s="28"/>
-      <c r="BU53" s="28"/>
-      <c r="BV53" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25"/>
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="24">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="26"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="25"/>
+      <c r="AX53" s="25"/>
+      <c r="AY53" s="25"/>
+      <c r="AZ53" s="25"/>
+      <c r="BA53" s="25"/>
+      <c r="BB53" s="25"/>
+      <c r="BC53" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD53" s="26"/>
+      <c r="BE53" s="23"/>
+      <c r="BF53" s="25"/>
+      <c r="BG53" s="25"/>
+      <c r="BH53" s="25"/>
+      <c r="BI53" s="25"/>
+      <c r="BJ53" s="25"/>
+      <c r="BK53" s="25"/>
+      <c r="BL53" s="24">
+        <v>1</v>
+      </c>
+      <c r="BM53" s="26"/>
+      <c r="BN53" s="23"/>
+      <c r="BO53" s="25"/>
+      <c r="BP53" s="25"/>
+      <c r="BQ53" s="25"/>
+      <c r="BR53" s="25"/>
+      <c r="BS53" s="25"/>
+      <c r="BT53" s="25"/>
+      <c r="BU53" s="24">
+        <v>1</v>
+      </c>
+      <c r="BV53" s="26"/>
+    </row>
+    <row r="54" spans="2:187" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E54" s="31"/>
-      <c r="BW54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BX54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BY54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BZ54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CA54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CB54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CC54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CD54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CE54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CF54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CG54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CH54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CI54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CJ54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CK54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CL54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CM54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CN54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CO54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CP54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CQ54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CR54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CS54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CT54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ER54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ES54" s="34"/>
-      <c r="ET54" s="34"/>
-      <c r="EU54" s="34"/>
-      <c r="EV54" s="34"/>
-      <c r="EW54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FJ54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FK54" s="35"/>
-      <c r="FL54" s="35"/>
-      <c r="FM54" s="35"/>
-      <c r="FN54" s="35"/>
-      <c r="FO54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FU54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FV54" s="33">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FW54" s="36"/>
-      <c r="FX54" s="37"/>
-      <c r="FY54" s="37"/>
-      <c r="FZ54" s="37"/>
-      <c r="GA54" s="38"/>
-    </row>
-    <row r="55" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="AN54" s="27"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
+      <c r="AS54" s="28"/>
+      <c r="AT54" s="28"/>
+      <c r="AU54" s="29">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="28"/>
+      <c r="AX54" s="28"/>
+      <c r="AY54" s="28"/>
+      <c r="AZ54" s="28"/>
+      <c r="BA54" s="28"/>
+      <c r="BB54" s="28"/>
+      <c r="BC54" s="28"/>
+      <c r="BD54" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE54" s="27"/>
+      <c r="BF54" s="28"/>
+      <c r="BG54" s="28"/>
+      <c r="BH54" s="28"/>
+      <c r="BI54" s="28"/>
+      <c r="BJ54" s="28"/>
+      <c r="BK54" s="28"/>
+      <c r="BL54" s="28"/>
+      <c r="BM54" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN54" s="27"/>
+      <c r="BO54" s="28"/>
+      <c r="BP54" s="28"/>
+      <c r="BQ54" s="28"/>
+      <c r="BR54" s="28"/>
+      <c r="BS54" s="28"/>
+      <c r="BT54" s="28"/>
+      <c r="BU54" s="28"/>
+      <c r="BV54" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E55" s="31"/>
-      <c r="BW55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BX55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BY55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BZ55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CA55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CB55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CC55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CD55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CE55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CF55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CG55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CH55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CI55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CJ55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CK55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CL55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CM55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CN55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CO55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CP55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CQ55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CR55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CS55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CT55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ER55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ES55" s="40">
-        <v>1</v>
-      </c>
-      <c r="ET55" s="41"/>
-      <c r="EU55" s="41"/>
-      <c r="EV55" s="41"/>
-      <c r="EW55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FJ55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FK55" s="42">
-        <v>1</v>
-      </c>
-      <c r="FL55" s="43"/>
-      <c r="FM55" s="43"/>
-      <c r="FN55" s="43"/>
-      <c r="FO55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FU55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FV55" s="39">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FW55" s="32">
-        <v>1</v>
-      </c>
-      <c r="FX55" s="44"/>
-      <c r="FY55" s="44"/>
-      <c r="FZ55" s="44"/>
-      <c r="GA55" s="45"/>
-    </row>
-    <row r="56" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="BW55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BX55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BY55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BZ55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CA55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CB55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CC55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CD55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CE55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CF55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CG55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CH55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CI55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CJ55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CK55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CL55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CM55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CN55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CO55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CP55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CQ55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CR55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CS55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CT55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ER55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ES55" s="34"/>
+      <c r="ET55" s="34"/>
+      <c r="EU55" s="34"/>
+      <c r="EV55" s="34"/>
+      <c r="EW55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FJ55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FK55" s="35"/>
+      <c r="FL55" s="35"/>
+      <c r="FM55" s="35"/>
+      <c r="FN55" s="35"/>
+      <c r="FO55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FU55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FV55" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FW55" s="36"/>
+      <c r="FX55" s="37"/>
+      <c r="FY55" s="37"/>
+      <c r="FZ55" s="37"/>
+      <c r="GA55" s="38"/>
+    </row>
+    <row r="56" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="11" t="s">
@@ -8784,10 +8685,10 @@
       <c r="ER56" s="39">
         <v>0.14285714285714285</v>
       </c>
-      <c r="ES56" s="41"/>
-      <c r="ET56" s="40">
-        <v>1</v>
-      </c>
+      <c r="ES56" s="40">
+        <v>1</v>
+      </c>
+      <c r="ET56" s="41"/>
       <c r="EU56" s="41"/>
       <c r="EV56" s="41"/>
       <c r="EW56" s="39">
@@ -8796,10 +8697,10 @@
       <c r="FJ56" s="39">
         <v>0.14285714285714285</v>
       </c>
-      <c r="FK56" s="43"/>
-      <c r="FL56" s="42">
-        <v>1</v>
-      </c>
+      <c r="FK56" s="42">
+        <v>1</v>
+      </c>
+      <c r="FL56" s="43"/>
       <c r="FM56" s="43"/>
       <c r="FN56" s="43"/>
       <c r="FO56" s="39">
@@ -8811,17 +8712,17 @@
       <c r="FV56" s="39">
         <v>0.14285714285714285</v>
       </c>
-      <c r="FW56" s="46"/>
-      <c r="FX56" s="24">
-        <v>1</v>
-      </c>
+      <c r="FW56" s="32">
+        <v>1</v>
+      </c>
+      <c r="FX56" s="44"/>
       <c r="FY56" s="44"/>
       <c r="FZ56" s="44"/>
       <c r="GA56" s="45"/>
     </row>
-    <row r="57" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="11" t="s">
@@ -8904,7 +8805,9 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="ES57" s="41"/>
-      <c r="ET57" s="41"/>
+      <c r="ET57" s="40">
+        <v>1</v>
+      </c>
       <c r="EU57" s="41"/>
       <c r="EV57" s="41"/>
       <c r="EW57" s="39">
@@ -8914,7 +8817,9 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="FK57" s="43"/>
-      <c r="FL57" s="43"/>
+      <c r="FL57" s="42">
+        <v>1</v>
+      </c>
       <c r="FM57" s="43"/>
       <c r="FN57" s="43"/>
       <c r="FO57" s="39">
@@ -8927,16 +8832,16 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="FW57" s="46"/>
-      <c r="FX57" s="44"/>
-      <c r="FY57" s="24">
-        <v>1</v>
-      </c>
+      <c r="FX57" s="24">
+        <v>1</v>
+      </c>
+      <c r="FY57" s="44"/>
       <c r="FZ57" s="44"/>
       <c r="GA57" s="45"/>
     </row>
-    <row r="58" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="11" t="s">
@@ -9020,9 +8925,7 @@
       </c>
       <c r="ES58" s="41"/>
       <c r="ET58" s="41"/>
-      <c r="EU58" s="40">
-        <v>1</v>
-      </c>
+      <c r="EU58" s="41"/>
       <c r="EV58" s="41"/>
       <c r="EW58" s="39">
         <v>0.14285714285714285</v>
@@ -9032,9 +8935,7 @@
       </c>
       <c r="FK58" s="43"/>
       <c r="FL58" s="43"/>
-      <c r="FM58" s="42">
-        <v>1</v>
-      </c>
+      <c r="FM58" s="43"/>
       <c r="FN58" s="43"/>
       <c r="FO58" s="39">
         <v>0.14285714285714285</v>
@@ -9047,15 +8948,15 @@
       </c>
       <c r="FW58" s="46"/>
       <c r="FX58" s="44"/>
-      <c r="FY58" s="44"/>
-      <c r="FZ58" s="24">
-        <v>1</v>
-      </c>
+      <c r="FY58" s="24">
+        <v>1</v>
+      </c>
+      <c r="FZ58" s="44"/>
       <c r="GA58" s="45"/>
     </row>
-    <row r="59" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="11" t="s">
@@ -9139,7 +9040,9 @@
       </c>
       <c r="ES59" s="41"/>
       <c r="ET59" s="41"/>
-      <c r="EU59" s="41"/>
+      <c r="EU59" s="40">
+        <v>1</v>
+      </c>
       <c r="EV59" s="41"/>
       <c r="EW59" s="39">
         <v>0.14285714285714285</v>
@@ -9149,7 +9052,9 @@
       </c>
       <c r="FK59" s="43"/>
       <c r="FL59" s="43"/>
-      <c r="FM59" s="43"/>
+      <c r="FM59" s="42">
+        <v>1</v>
+      </c>
       <c r="FN59" s="43"/>
       <c r="FO59" s="39">
         <v>0.14285714285714285</v>
@@ -9163,12 +9068,14 @@
       <c r="FW59" s="46"/>
       <c r="FX59" s="44"/>
       <c r="FY59" s="44"/>
-      <c r="FZ59" s="44"/>
+      <c r="FZ59" s="24">
+        <v>1</v>
+      </c>
       <c r="GA59" s="45"/>
     </row>
-    <row r="60" spans="2:187" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="11" t="s">
@@ -9253,9 +9160,7 @@
       <c r="ES60" s="41"/>
       <c r="ET60" s="41"/>
       <c r="EU60" s="41"/>
-      <c r="EV60" s="40">
-        <v>1</v>
-      </c>
+      <c r="EV60" s="41"/>
       <c r="EW60" s="39">
         <v>0.14285714285714285</v>
       </c>
@@ -9265,9 +9170,7 @@
       <c r="FK60" s="43"/>
       <c r="FL60" s="43"/>
       <c r="FM60" s="43"/>
-      <c r="FN60" s="42">
-        <v>1</v>
-      </c>
+      <c r="FN60" s="43"/>
       <c r="FO60" s="39">
         <v>0.14285714285714285</v>
       </c>
@@ -9281,224 +9184,324 @@
       <c r="FX60" s="44"/>
       <c r="FY60" s="44"/>
       <c r="FZ60" s="44"/>
-      <c r="GA60" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:187" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GA60" s="45"/>
+    </row>
+    <row r="61" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E61" s="31"/>
-      <c r="BW61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BX61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BY61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="BZ61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CA61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CB61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CC61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CD61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CE61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CF61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CG61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CH61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CI61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CJ61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CK61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CL61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CM61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CN61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CO61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CP61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CQ61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CR61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CS61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CT61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ER61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="ES61" s="49"/>
-      <c r="ET61" s="49"/>
-      <c r="EU61" s="49"/>
-      <c r="EV61" s="49"/>
-      <c r="EW61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FJ61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FK61" s="50"/>
-      <c r="FL61" s="50"/>
-      <c r="FM61" s="50"/>
-      <c r="FN61" s="50"/>
-      <c r="FO61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FU61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FV61" s="48">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="FW61" s="51"/>
-      <c r="FX61" s="52"/>
-      <c r="FY61" s="52"/>
-      <c r="FZ61" s="52"/>
-      <c r="GA61" s="53"/>
-    </row>
-    <row r="62" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="BW61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BX61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BY61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BZ61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CA61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CB61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CC61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CD61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CE61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CF61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CG61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CH61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CI61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CJ61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CK61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CL61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CM61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CN61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CO61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CP61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CQ61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CR61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CS61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CT61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ER61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ES61" s="41"/>
+      <c r="ET61" s="41"/>
+      <c r="EU61" s="41"/>
+      <c r="EV61" s="40">
+        <v>1</v>
+      </c>
+      <c r="EW61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FJ61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FK61" s="43"/>
+      <c r="FL61" s="43"/>
+      <c r="FM61" s="43"/>
+      <c r="FN61" s="42">
+        <v>1</v>
+      </c>
+      <c r="FO61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FU61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FV61" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FW61" s="46"/>
+      <c r="FX61" s="44"/>
+      <c r="FY61" s="44"/>
+      <c r="FZ61" s="44"/>
+      <c r="GA61" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:187" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E62" s="31"/>
-      <c r="GB62" s="30"/>
-      <c r="GC62" s="21">
-        <v>1</v>
-      </c>
-      <c r="GD62" s="20"/>
-      <c r="GE62" s="22"/>
-    </row>
-    <row r="63" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="BW62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BX62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BY62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BZ62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CA62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CB62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CC62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CD62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CE62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CF62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CG62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CH62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CI62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CJ62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CK62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CL62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CM62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CN62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CO62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CP62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CQ62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CR62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CS62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="CT62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ER62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="ES62" s="49"/>
+      <c r="ET62" s="49"/>
+      <c r="EU62" s="49"/>
+      <c r="EV62" s="49"/>
+      <c r="EW62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FJ62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FK62" s="50"/>
+      <c r="FL62" s="50"/>
+      <c r="FM62" s="50"/>
+      <c r="FN62" s="50"/>
+      <c r="FO62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FU62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FV62" s="48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="FW62" s="51"/>
+      <c r="FX62" s="52"/>
+      <c r="FY62" s="52"/>
+      <c r="FZ62" s="52"/>
+      <c r="GA62" s="53"/>
+    </row>
+    <row r="63" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E63" s="31"/>
-      <c r="GB63" s="32">
-        <v>1</v>
-      </c>
-      <c r="GC63" s="25"/>
-      <c r="GD63" s="25"/>
-      <c r="GE63" s="26"/>
-    </row>
-    <row r="64" spans="2:187" x14ac:dyDescent="0.25">
+      <c r="GB63" s="30"/>
+      <c r="GC63" s="21">
+        <v>1</v>
+      </c>
+      <c r="GD63" s="20"/>
+      <c r="GE63" s="22"/>
+    </row>
+    <row r="64" spans="2:187" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E64" s="31"/>
-      <c r="GB64" s="23"/>
+      <c r="GB64" s="32">
+        <v>1</v>
+      </c>
       <c r="GC64" s="25"/>
-      <c r="GD64" s="24">
-        <v>1</v>
-      </c>
+      <c r="GD64" s="25"/>
       <c r="GE64" s="26"/>
     </row>
-    <row r="65" spans="2:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E65" s="31"/>
-      <c r="GB65" s="27"/>
-      <c r="GC65" s="28"/>
-      <c r="GD65" s="28"/>
-      <c r="GE65" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="GB65" s="23"/>
+      <c r="GC65" s="25"/>
+      <c r="GD65" s="24">
+        <v>1</v>
+      </c>
+      <c r="GE65" s="26"/>
+    </row>
+    <row r="66" spans="2:242" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E66" s="31"/>
-      <c r="FP66" s="19">
-        <v>1</v>
-      </c>
-      <c r="FQ66" s="20"/>
-      <c r="FR66" s="20"/>
-      <c r="FS66" s="20"/>
-      <c r="FT66" s="22"/>
-    </row>
-    <row r="67" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="GB66" s="27"/>
+      <c r="GC66" s="28"/>
+      <c r="GD66" s="28"/>
+      <c r="GE66" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E67" s="31"/>
-      <c r="FP67" s="23"/>
-      <c r="FQ67" s="24">
-        <v>1</v>
-      </c>
-      <c r="FR67" s="25"/>
-      <c r="FS67" s="25"/>
-      <c r="FT67" s="26"/>
-    </row>
-    <row r="68" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="FP67" s="19">
+        <v>1</v>
+      </c>
+      <c r="FQ67" s="20"/>
+      <c r="FR67" s="20"/>
+      <c r="FS67" s="20"/>
+      <c r="FT67" s="22"/>
+    </row>
+    <row r="68" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="11" t="s">
@@ -9506,16 +9509,16 @@
       </c>
       <c r="E68" s="31"/>
       <c r="FP68" s="23"/>
-      <c r="FQ68" s="25"/>
-      <c r="FR68" s="24">
-        <v>1</v>
-      </c>
+      <c r="FQ68" s="24">
+        <v>1</v>
+      </c>
+      <c r="FR68" s="25"/>
       <c r="FS68" s="25"/>
       <c r="FT68" s="26"/>
     </row>
-    <row r="69" spans="2:242" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="11" t="s">
@@ -9524,64 +9527,65 @@
       <c r="E69" s="31"/>
       <c r="FP69" s="23"/>
       <c r="FQ69" s="25"/>
-      <c r="FR69" s="25"/>
-      <c r="FS69" s="24">
-        <v>1</v>
-      </c>
+      <c r="FR69" s="24">
+        <v>1</v>
+      </c>
+      <c r="FS69" s="25"/>
       <c r="FT69" s="26"/>
     </row>
-    <row r="70" spans="2:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E70" s="31"/>
-      <c r="FP70" s="27"/>
-      <c r="FQ70" s="28"/>
-      <c r="FR70" s="28"/>
-      <c r="FS70" s="28"/>
-      <c r="FT70" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="FP70" s="23"/>
+      <c r="FQ70" s="25"/>
+      <c r="FR70" s="25"/>
+      <c r="FS70" s="24">
+        <v>1</v>
+      </c>
+      <c r="FT70" s="26"/>
+    </row>
+    <row r="71" spans="2:242" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E71" s="31"/>
-      <c r="IE71" s="19">
-        <v>1</v>
-      </c>
-      <c r="IF71" s="20"/>
-      <c r="IG71" s="20"/>
-      <c r="IH71" s="22"/>
-    </row>
-    <row r="72" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="FP71" s="27"/>
+      <c r="FQ71" s="28"/>
+      <c r="FR71" s="28"/>
+      <c r="FS71" s="28"/>
+      <c r="FT71" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E72" s="31"/>
-      <c r="IE72" s="23"/>
-      <c r="IF72" s="24">
-        <v>1</v>
-      </c>
-      <c r="IG72" s="25"/>
-      <c r="IH72" s="26"/>
-    </row>
-    <row r="73" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="IE72" s="19">
+        <v>1</v>
+      </c>
+      <c r="IF72" s="20"/>
+      <c r="IG72" s="20"/>
+      <c r="IH72" s="22"/>
+    </row>
+    <row r="73" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="11" t="s">
@@ -9589,227 +9593,225 @@
       </c>
       <c r="E73" s="31"/>
       <c r="IE73" s="23"/>
-      <c r="IF73" s="25"/>
-      <c r="IG73" s="24">
-        <v>1</v>
-      </c>
+      <c r="IF73" s="24">
+        <v>1</v>
+      </c>
+      <c r="IG73" s="25"/>
       <c r="IH73" s="26"/>
     </row>
-    <row r="74" spans="2:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E74" s="31"/>
-      <c r="IE74" s="27"/>
-      <c r="IF74" s="28"/>
-      <c r="IG74" s="28"/>
-      <c r="IH74" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="IE74" s="23"/>
+      <c r="IF74" s="25"/>
+      <c r="IG74" s="24">
+        <v>1</v>
+      </c>
+      <c r="IH74" s="26"/>
+    </row>
+    <row r="75" spans="2:242" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E75" s="31"/>
-      <c r="GF75" s="30"/>
-      <c r="GG75" s="21">
-        <v>1</v>
-      </c>
-      <c r="GH75" s="20"/>
-      <c r="GI75" s="22"/>
-    </row>
-    <row r="76" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="IE75" s="27"/>
+      <c r="IF75" s="28"/>
+      <c r="IG75" s="28"/>
+      <c r="IH75" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E76" s="31"/>
-      <c r="GF76" s="32">
-        <v>1</v>
-      </c>
-      <c r="GG76" s="25"/>
-      <c r="GH76" s="25"/>
-      <c r="GI76" s="26"/>
-    </row>
-    <row r="77" spans="2:242" x14ac:dyDescent="0.25">
+      <c r="GF76" s="30"/>
+      <c r="GG76" s="21">
+        <v>1</v>
+      </c>
+      <c r="GH76" s="20"/>
+      <c r="GI76" s="22"/>
+    </row>
+    <row r="77" spans="2:242" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="GF77" s="32">
+        <v>1</v>
+      </c>
+      <c r="GG77" s="25"/>
+      <c r="GH77" s="25"/>
+      <c r="GI77" s="26"/>
+    </row>
+    <row r="78" spans="2:242" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E77" s="31"/>
-      <c r="GF77" s="23"/>
-      <c r="GG77" s="25"/>
-      <c r="GH77" s="24">
-        <v>1</v>
-      </c>
-      <c r="GI77" s="26"/>
-    </row>
-    <row r="78" spans="2:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="54"/>
+      <c r="D78" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="GF78" s="23"/>
+      <c r="GG78" s="25"/>
+      <c r="GH78" s="24">
+        <v>1</v>
+      </c>
+      <c r="GI78" s="26"/>
+    </row>
+    <row r="79" spans="2:242" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E78" s="31"/>
-      <c r="GF78" s="27"/>
-      <c r="GG78" s="28"/>
-      <c r="GH78" s="28"/>
-      <c r="GI78" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:242" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="7"/>
+      <c r="D79" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="GF79" s="27"/>
+      <c r="GG79" s="28"/>
+      <c r="GH79" s="28"/>
+      <c r="GI79" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:242" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E79" s="31"/>
-      <c r="GQ79" s="55"/>
-      <c r="GR79" s="21">
-        <v>1</v>
-      </c>
-      <c r="GS79" s="56"/>
-      <c r="GT79" s="57"/>
-    </row>
-    <row r="80" spans="2:242" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
+      <c r="D80" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="GQ80" s="55"/>
+      <c r="GR80" s="21">
+        <v>1</v>
+      </c>
+      <c r="GS80" s="56"/>
+      <c r="GT80" s="57"/>
+    </row>
+    <row r="81" spans="2:211" x14ac:dyDescent="0.3">
+      <c r="B81" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="GQ80" s="32">
-        <v>1</v>
-      </c>
-      <c r="GR80" s="58"/>
-      <c r="GS80" s="58"/>
-      <c r="GT80" s="59"/>
-    </row>
-    <row r="81" spans="2:211" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="D81" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E81" s="31"/>
-      <c r="GQ81" s="60"/>
+      <c r="GQ81" s="32">
+        <v>1</v>
+      </c>
       <c r="GR81" s="58"/>
       <c r="GS81" s="58"/>
-      <c r="GT81" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:211" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GT81" s="59"/>
+    </row>
+    <row r="82" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="GQ82" s="60"/>
+      <c r="GR82" s="58"/>
+      <c r="GS82" s="58"/>
+      <c r="GT82" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:211" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" s="31"/>
-      <c r="GQ82" s="61"/>
-      <c r="GR82" s="62"/>
-      <c r="GS82" s="63">
-        <v>1</v>
-      </c>
-      <c r="GT82" s="64"/>
-    </row>
-    <row r="83" spans="2:211" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
+      <c r="D83" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="GQ83" s="61"/>
+      <c r="GR83" s="62"/>
+      <c r="GS83" s="63">
+        <v>1</v>
+      </c>
+      <c r="GT83" s="64"/>
+    </row>
+    <row r="84" spans="2:211" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="31"/>
-      <c r="GJ83" s="19">
-        <v>1.1509843114468333E-9</v>
-      </c>
-      <c r="GK83" s="20"/>
-      <c r="GL83" s="20"/>
-      <c r="GM83" s="20"/>
-      <c r="GN83" s="20"/>
-      <c r="GO83" s="20"/>
-      <c r="GP83" s="22"/>
-    </row>
-    <row r="84" spans="2:211" x14ac:dyDescent="0.25">
-      <c r="B84" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E84" s="31"/>
-      <c r="GJ84" s="23"/>
-      <c r="GK84" s="25"/>
-      <c r="GL84" s="65">
-        <v>1.8885043446108301E-6</v>
-      </c>
-      <c r="GM84" s="25"/>
-      <c r="GN84" s="25"/>
-      <c r="GO84" s="25"/>
-      <c r="GP84" s="26"/>
-    </row>
-    <row r="85" spans="2:211" x14ac:dyDescent="0.25">
+      <c r="GJ84" s="19">
+        <v>1.1509843114468333E-9</v>
+      </c>
+      <c r="GK84" s="20"/>
+      <c r="GL84" s="20"/>
+      <c r="GM84" s="20"/>
+      <c r="GN84" s="20"/>
+      <c r="GO84" s="20"/>
+      <c r="GP84" s="22"/>
+    </row>
+    <row r="85" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E85" s="31"/>
       <c r="GJ85" s="23"/>
-      <c r="GK85" s="24">
-        <v>1.0111718381144833E-7</v>
-      </c>
-      <c r="GL85" s="25"/>
+      <c r="GK85" s="25"/>
+      <c r="GL85" s="65">
+        <v>1.8885043446108301E-6</v>
+      </c>
       <c r="GM85" s="25"/>
       <c r="GN85" s="25"/>
       <c r="GO85" s="25"/>
       <c r="GP85" s="26"/>
     </row>
-    <row r="86" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E86" s="31"/>
       <c r="GJ86" s="23"/>
-      <c r="GK86" s="25"/>
+      <c r="GK86" s="24">
+        <v>1.0111718381144833E-7</v>
+      </c>
       <c r="GL86" s="25"/>
-      <c r="GM86" s="24">
-        <v>1.1720693352394567E-9</v>
-      </c>
+      <c r="GM86" s="25"/>
       <c r="GN86" s="25"/>
       <c r="GO86" s="25"/>
       <c r="GP86" s="26"/>
     </row>
-    <row r="87" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>330</v>
@@ -9818,16 +9820,16 @@
       <c r="GJ87" s="23"/>
       <c r="GK87" s="25"/>
       <c r="GL87" s="25"/>
-      <c r="GM87" s="25"/>
-      <c r="GN87" s="24">
-        <v>6.3232050323781047E-8</v>
-      </c>
+      <c r="GM87" s="24">
+        <v>1.1720693352394567E-9</v>
+      </c>
+      <c r="GN87" s="25"/>
       <c r="GO87" s="25"/>
       <c r="GP87" s="26"/>
     </row>
-    <row r="88" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>330</v>
@@ -9837,95 +9839,93 @@
       <c r="GK88" s="25"/>
       <c r="GL88" s="25"/>
       <c r="GM88" s="25"/>
-      <c r="GN88" s="25"/>
-      <c r="GO88" s="24">
-        <v>8.0701400251132005E-8</v>
-      </c>
+      <c r="GN88" s="24">
+        <v>6.3232050323781047E-8</v>
+      </c>
+      <c r="GO88" s="25"/>
       <c r="GP88" s="26"/>
     </row>
-    <row r="89" spans="2:211" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="GJ89" s="27"/>
-      <c r="GK89" s="28"/>
-      <c r="GL89" s="28"/>
-      <c r="GM89" s="28"/>
-      <c r="GN89" s="28"/>
-      <c r="GO89" s="28"/>
-      <c r="GP89" s="29">
-        <v>7.859903366081495E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="2:211" x14ac:dyDescent="0.25">
+      <c r="GJ89" s="23"/>
+      <c r="GK89" s="25"/>
+      <c r="GL89" s="25"/>
+      <c r="GM89" s="25"/>
+      <c r="GN89" s="25"/>
+      <c r="GO89" s="24">
+        <v>8.0701400251132005E-8</v>
+      </c>
+      <c r="GP89" s="26"/>
+    </row>
+    <row r="90" spans="2:211" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E90" s="31"/>
-      <c r="GU90" s="66">
-        <v>3.3778633938595598E-7</v>
-      </c>
-      <c r="GV90" s="20"/>
-      <c r="GW90" s="67">
-        <v>3.3778633938595598E-7</v>
-      </c>
-      <c r="GX90" s="20"/>
-      <c r="GY90" s="20"/>
-      <c r="GZ90" s="20"/>
-      <c r="HA90" s="20"/>
-      <c r="HB90" s="20"/>
-      <c r="HC90" s="22"/>
-    </row>
-    <row r="91" spans="2:211" x14ac:dyDescent="0.25">
+      <c r="GJ90" s="27"/>
+      <c r="GK90" s="28"/>
+      <c r="GL90" s="28"/>
+      <c r="GM90" s="28"/>
+      <c r="GN90" s="28"/>
+      <c r="GO90" s="28"/>
+      <c r="GP90" s="29">
+        <v>7.859903366081495E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E91" s="31"/>
-      <c r="GU91" s="23"/>
-      <c r="GV91" s="11">
-        <v>3.4625525569481289E-7</v>
-      </c>
-      <c r="GW91" s="25"/>
-      <c r="GX91" s="25"/>
-      <c r="GY91" s="25"/>
-      <c r="GZ91" s="25"/>
-      <c r="HA91" s="25"/>
-      <c r="HB91" s="25"/>
-      <c r="HC91" s="26"/>
-    </row>
-    <row r="92" spans="2:211" x14ac:dyDescent="0.25">
+      <c r="GU91" s="66">
+        <v>3.3778633938595598E-7</v>
+      </c>
+      <c r="GV91" s="20"/>
+      <c r="GW91" s="67">
+        <v>3.3778633938595598E-7</v>
+      </c>
+      <c r="GX91" s="20"/>
+      <c r="GY91" s="20"/>
+      <c r="GZ91" s="20"/>
+      <c r="HA91" s="20"/>
+      <c r="HB91" s="20"/>
+      <c r="HC91" s="22"/>
+    </row>
+    <row r="92" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E92" s="31"/>
       <c r="GU92" s="23"/>
-      <c r="GV92" s="25"/>
+      <c r="GV92" s="11">
+        <v>3.4625525569481289E-7</v>
+      </c>
       <c r="GW92" s="25"/>
-      <c r="GX92" s="11">
-        <v>1.856982751791691E-6</v>
-      </c>
+      <c r="GX92" s="25"/>
       <c r="GY92" s="25"/>
       <c r="GZ92" s="25"/>
       <c r="HA92" s="25"/>
       <c r="HB92" s="25"/>
       <c r="HC92" s="26"/>
     </row>
-    <row r="93" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>330</v>
@@ -9934,18 +9934,18 @@
       <c r="GU93" s="23"/>
       <c r="GV93" s="25"/>
       <c r="GW93" s="25"/>
-      <c r="GX93" s="25"/>
-      <c r="GY93" s="11">
-        <v>2.4262283333333334E-7</v>
-      </c>
+      <c r="GX93" s="11">
+        <v>1.856982751791691E-6</v>
+      </c>
+      <c r="GY93" s="25"/>
       <c r="GZ93" s="25"/>
       <c r="HA93" s="25"/>
       <c r="HB93" s="25"/>
       <c r="HC93" s="26"/>
     </row>
-    <row r="94" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>330</v>
@@ -9955,17 +9955,17 @@
       <c r="GV94" s="25"/>
       <c r="GW94" s="25"/>
       <c r="GX94" s="25"/>
-      <c r="GY94" s="25"/>
-      <c r="GZ94" s="11">
-        <v>2.4953626761956252E-7</v>
-      </c>
+      <c r="GY94" s="11">
+        <v>2.4262283333333334E-7</v>
+      </c>
+      <c r="GZ94" s="25"/>
       <c r="HA94" s="25"/>
       <c r="HB94" s="25"/>
       <c r="HC94" s="26"/>
     </row>
-    <row r="95" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>330</v>
@@ -9976,16 +9976,16 @@
       <c r="GW95" s="25"/>
       <c r="GX95" s="25"/>
       <c r="GY95" s="25"/>
-      <c r="GZ95" s="25"/>
-      <c r="HA95" s="11">
-        <v>2.4403070277240492E-6</v>
-      </c>
+      <c r="GZ95" s="11">
+        <v>2.4953626761956252E-7</v>
+      </c>
+      <c r="HA95" s="25"/>
       <c r="HB95" s="25"/>
       <c r="HC95" s="26"/>
     </row>
-    <row r="96" spans="2:211" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:211" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>330</v>
@@ -9997,108 +9997,112 @@
       <c r="GX96" s="25"/>
       <c r="GY96" s="25"/>
       <c r="GZ96" s="25"/>
-      <c r="HA96" s="25"/>
-      <c r="HB96" s="11">
-        <v>4.6044705106635081E-7</v>
-      </c>
+      <c r="HA96" s="11">
+        <v>2.4403070277240492E-6</v>
+      </c>
+      <c r="HB96" s="25"/>
       <c r="HC96" s="26"/>
     </row>
-    <row r="97" spans="2:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B97" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E97" s="31"/>
-      <c r="GU97" s="27"/>
-      <c r="GV97" s="28"/>
-      <c r="GW97" s="28"/>
-      <c r="GX97" s="28"/>
-      <c r="GY97" s="28"/>
-      <c r="GZ97" s="28"/>
-      <c r="HA97" s="28"/>
-      <c r="HB97" s="28"/>
-      <c r="HC97" s="68">
-        <v>3.0600265181220644E-7</v>
-      </c>
-    </row>
-    <row r="98" spans="2:234" x14ac:dyDescent="0.25">
+      <c r="GU97" s="23"/>
+      <c r="GV97" s="25"/>
+      <c r="GW97" s="25"/>
+      <c r="GX97" s="25"/>
+      <c r="GY97" s="25"/>
+      <c r="GZ97" s="25"/>
+      <c r="HA97" s="25"/>
+      <c r="HB97" s="11">
+        <v>4.6044705106635081E-7</v>
+      </c>
+      <c r="HC97" s="26"/>
+    </row>
+    <row r="98" spans="2:234" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E98" s="31"/>
-      <c r="HB98" s="18"/>
-      <c r="HL98" s="11">
-        <v>2.1030706854190488E-9</v>
-      </c>
-    </row>
-    <row r="99" spans="2:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GU98" s="27"/>
+      <c r="GV98" s="28"/>
+      <c r="GW98" s="28"/>
+      <c r="GX98" s="28"/>
+      <c r="GY98" s="28"/>
+      <c r="GZ98" s="28"/>
+      <c r="HA98" s="28"/>
+      <c r="HB98" s="28"/>
+      <c r="HC98" s="68">
+        <v>3.0600265181220644E-7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B99" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>330</v>
       </c>
       <c r="E99" s="31"/>
+      <c r="HB99" s="18"/>
       <c r="HL99" s="11">
+        <v>2.1030706854190488E-9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:234" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="HL100" s="11">
         <v>1.1632609728724113E-9</v>
       </c>
     </row>
-    <row r="100" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
+    <row r="101" spans="2:234" x14ac:dyDescent="0.3">
+      <c r="B101" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="HR100" s="19">
-        <v>1</v>
-      </c>
-      <c r="HS100" s="20"/>
-      <c r="HT100" s="20"/>
-      <c r="HU100" s="20"/>
-      <c r="HV100" s="22"/>
-    </row>
-    <row r="101" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
+      <c r="D101" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="HR101" s="19">
+        <v>1</v>
+      </c>
+      <c r="HS101" s="20"/>
+      <c r="HT101" s="20"/>
+      <c r="HU101" s="20"/>
+      <c r="HV101" s="22"/>
+    </row>
+    <row r="102" spans="2:234" x14ac:dyDescent="0.3">
+      <c r="B102" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E101" s="31"/>
-      <c r="HR101" s="23"/>
-      <c r="HS101" s="24">
-        <v>1</v>
-      </c>
-      <c r="HT101" s="25"/>
-      <c r="HU101" s="25"/>
-      <c r="HV101" s="26"/>
-    </row>
-    <row r="102" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E102" s="31"/>
       <c r="HR102" s="23"/>
-      <c r="HS102" s="25"/>
-      <c r="HT102" s="24">
-        <v>1</v>
-      </c>
+      <c r="HS102" s="24">
+        <v>1</v>
+      </c>
+      <c r="HT102" s="25"/>
       <c r="HU102" s="25"/>
       <c r="HV102" s="26"/>
     </row>
-    <row r="103" spans="2:234" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>240</v>
@@ -10106,97 +10110,91 @@
       <c r="E103" s="31"/>
       <c r="HR103" s="23"/>
       <c r="HS103" s="25"/>
-      <c r="HT103" s="25"/>
-      <c r="HU103" s="24">
-        <v>1</v>
-      </c>
+      <c r="HT103" s="24">
+        <v>1</v>
+      </c>
+      <c r="HU103" s="25"/>
       <c r="HV103" s="26"/>
     </row>
-    <row r="104" spans="2:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B104" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="HR104" s="23"/>
+      <c r="HS104" s="25"/>
+      <c r="HT104" s="25"/>
+      <c r="HU104" s="24">
+        <v>1</v>
+      </c>
+      <c r="HV104" s="26"/>
+    </row>
+    <row r="105" spans="2:234" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="HR104" s="27"/>
-      <c r="HS104" s="28"/>
-      <c r="HT104" s="28"/>
-      <c r="HU104" s="28"/>
-      <c r="HV104" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B105" s="11" t="s">
+      <c r="D105" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="HR105" s="27"/>
+      <c r="HS105" s="28"/>
+      <c r="HT105" s="28"/>
+      <c r="HU105" s="28"/>
+      <c r="HV105" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:234" x14ac:dyDescent="0.3">
+      <c r="B106" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="HM105" s="19">
-        <v>1</v>
-      </c>
-      <c r="HN105" s="20"/>
-      <c r="HO105" s="20"/>
-      <c r="HP105" s="20"/>
-      <c r="HQ105" s="22"/>
-      <c r="HW105" s="19">
-        <v>1</v>
-      </c>
-      <c r="HX105" s="20"/>
-      <c r="HY105" s="20"/>
-      <c r="HZ105" s="22"/>
-    </row>
-    <row r="106" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B106" s="11" t="s">
+      <c r="D106" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="HM106" s="19">
+        <v>1</v>
+      </c>
+      <c r="HN106" s="20"/>
+      <c r="HO106" s="20"/>
+      <c r="HP106" s="20"/>
+      <c r="HQ106" s="22"/>
+      <c r="HW106" s="19">
+        <v>1</v>
+      </c>
+      <c r="HX106" s="20"/>
+      <c r="HY106" s="20"/>
+      <c r="HZ106" s="22"/>
+    </row>
+    <row r="107" spans="2:234" x14ac:dyDescent="0.3">
+      <c r="B107" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E106" s="31"/>
-      <c r="HM106" s="23"/>
-      <c r="HN106" s="24">
-        <v>1</v>
-      </c>
-      <c r="HO106" s="25"/>
-      <c r="HP106" s="25"/>
-      <c r="HQ106" s="26"/>
-      <c r="HW106" s="23"/>
-      <c r="HX106" s="24">
-        <v>1</v>
-      </c>
-      <c r="HY106" s="25"/>
-      <c r="HZ106" s="26"/>
-    </row>
-    <row r="107" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E107" s="31"/>
       <c r="HM107" s="23"/>
-      <c r="HN107" s="25"/>
-      <c r="HO107" s="24">
-        <v>1</v>
-      </c>
+      <c r="HN107" s="24">
+        <v>1</v>
+      </c>
+      <c r="HO107" s="25"/>
       <c r="HP107" s="25"/>
       <c r="HQ107" s="26"/>
       <c r="HW107" s="23"/>
-      <c r="HX107" s="25"/>
-      <c r="HY107" s="24">
-        <v>1</v>
-      </c>
+      <c r="HX107" s="24">
+        <v>1</v>
+      </c>
+      <c r="HY107" s="25"/>
       <c r="HZ107" s="26"/>
     </row>
-    <row r="108" spans="2:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B108" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>240</v>
@@ -10204,99 +10202,101 @@
       <c r="E108" s="31"/>
       <c r="HM108" s="23"/>
       <c r="HN108" s="25"/>
-      <c r="HO108" s="25"/>
-      <c r="HP108" s="24">
-        <v>1</v>
-      </c>
+      <c r="HO108" s="24">
+        <v>1</v>
+      </c>
+      <c r="HP108" s="25"/>
       <c r="HQ108" s="26"/>
-      <c r="HW108" s="27"/>
-      <c r="HX108" s="28"/>
-      <c r="HY108" s="28"/>
-      <c r="HZ108" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="HW108" s="23"/>
+      <c r="HX108" s="25"/>
+      <c r="HY108" s="24">
+        <v>1</v>
+      </c>
+      <c r="HZ108" s="26"/>
+    </row>
+    <row r="109" spans="2:234" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="31"/>
+      <c r="HM109" s="23"/>
+      <c r="HN109" s="25"/>
+      <c r="HO109" s="25"/>
+      <c r="HP109" s="24">
+        <v>1</v>
+      </c>
+      <c r="HQ109" s="26"/>
+      <c r="HW109" s="27"/>
+      <c r="HX109" s="28"/>
+      <c r="HY109" s="28"/>
+      <c r="HZ109" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:234" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="31"/>
-      <c r="HM109" s="27"/>
-      <c r="HN109" s="28"/>
-      <c r="HO109" s="28"/>
-      <c r="HP109" s="28"/>
-      <c r="HQ109" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
+      <c r="D110" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="HM110" s="27"/>
+      <c r="HN110" s="28"/>
+      <c r="HO110" s="28"/>
+      <c r="HP110" s="28"/>
+      <c r="HQ110" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:234" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="31"/>
-      <c r="EI110" s="19">
-        <v>1</v>
-      </c>
-      <c r="EJ110" s="20"/>
-      <c r="EK110" s="21">
-        <v>1</v>
-      </c>
-      <c r="EL110" s="20"/>
-      <c r="EM110" s="20"/>
-      <c r="EN110" s="20"/>
-      <c r="EO110" s="20"/>
-      <c r="EP110" s="20"/>
-      <c r="EQ110" s="22"/>
-    </row>
-    <row r="111" spans="2:234" x14ac:dyDescent="0.25">
-      <c r="B111" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>241</v>
       </c>
       <c r="E111" s="31"/>
-      <c r="EI111" s="23"/>
-      <c r="EJ111" s="24">
-        <v>1</v>
-      </c>
-      <c r="EK111" s="25"/>
-      <c r="EL111" s="25"/>
-      <c r="EM111" s="25"/>
-      <c r="EN111" s="25"/>
-      <c r="EO111" s="25"/>
-      <c r="EP111" s="25"/>
-      <c r="EQ111" s="26"/>
-    </row>
-    <row r="112" spans="2:234" x14ac:dyDescent="0.25">
+      <c r="EI111" s="19">
+        <v>1</v>
+      </c>
+      <c r="EJ111" s="20"/>
+      <c r="EK111" s="21">
+        <v>1</v>
+      </c>
+      <c r="EL111" s="20"/>
+      <c r="EM111" s="20"/>
+      <c r="EN111" s="20"/>
+      <c r="EO111" s="20"/>
+      <c r="EP111" s="20"/>
+      <c r="EQ111" s="22"/>
+    </row>
+    <row r="112" spans="2:234" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>241</v>
       </c>
       <c r="E112" s="31"/>
       <c r="EI112" s="23"/>
-      <c r="EJ112" s="25"/>
+      <c r="EJ112" s="24">
+        <v>1</v>
+      </c>
       <c r="EK112" s="25"/>
-      <c r="EL112" s="24">
-        <v>1</v>
-      </c>
+      <c r="EL112" s="25"/>
       <c r="EM112" s="25"/>
       <c r="EN112" s="25"/>
       <c r="EO112" s="25"/>
       <c r="EP112" s="25"/>
       <c r="EQ112" s="26"/>
     </row>
-    <row r="113" spans="2:243" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:243" x14ac:dyDescent="0.3">
       <c r="B113" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>241</v>
@@ -10305,18 +10305,18 @@
       <c r="EI113" s="23"/>
       <c r="EJ113" s="25"/>
       <c r="EK113" s="25"/>
-      <c r="EL113" s="25"/>
-      <c r="EM113" s="24">
-        <v>1</v>
-      </c>
+      <c r="EL113" s="24">
+        <v>1</v>
+      </c>
+      <c r="EM113" s="25"/>
       <c r="EN113" s="25"/>
       <c r="EO113" s="25"/>
       <c r="EP113" s="25"/>
       <c r="EQ113" s="26"/>
     </row>
-    <row r="114" spans="2:243" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:243" x14ac:dyDescent="0.3">
       <c r="B114" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>241</v>
@@ -10326,17 +10326,17 @@
       <c r="EJ114" s="25"/>
       <c r="EK114" s="25"/>
       <c r="EL114" s="25"/>
-      <c r="EM114" s="25"/>
-      <c r="EN114" s="24">
-        <v>1</v>
-      </c>
+      <c r="EM114" s="24">
+        <v>1</v>
+      </c>
+      <c r="EN114" s="25"/>
       <c r="EO114" s="25"/>
       <c r="EP114" s="25"/>
       <c r="EQ114" s="26"/>
     </row>
-    <row r="115" spans="2:243" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:243" x14ac:dyDescent="0.3">
       <c r="B115" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>241</v>
@@ -10347,16 +10347,16 @@
       <c r="EK115" s="25"/>
       <c r="EL115" s="25"/>
       <c r="EM115" s="25"/>
-      <c r="EN115" s="25"/>
-      <c r="EO115" s="24">
-        <v>1</v>
-      </c>
+      <c r="EN115" s="24">
+        <v>1</v>
+      </c>
+      <c r="EO115" s="25"/>
       <c r="EP115" s="25"/>
       <c r="EQ115" s="26"/>
     </row>
-    <row r="116" spans="2:243" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:243" x14ac:dyDescent="0.3">
       <c r="B116" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>241</v>
@@ -10368,41 +10368,61 @@
       <c r="EL116" s="25"/>
       <c r="EM116" s="25"/>
       <c r="EN116" s="25"/>
-      <c r="EO116" s="25"/>
-      <c r="EP116" s="24">
-        <v>1</v>
-      </c>
+      <c r="EO116" s="24">
+        <v>1</v>
+      </c>
+      <c r="EP116" s="25"/>
       <c r="EQ116" s="26"/>
     </row>
-    <row r="117" spans="2:243" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:243" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>241</v>
       </c>
       <c r="E117" s="31"/>
-      <c r="EI117" s="27"/>
-      <c r="EJ117" s="28"/>
-      <c r="EK117" s="28"/>
-      <c r="EL117" s="28"/>
-      <c r="EM117" s="28"/>
-      <c r="EN117" s="28"/>
-      <c r="EO117" s="28"/>
-      <c r="EP117" s="28"/>
-      <c r="EQ117" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:243" x14ac:dyDescent="0.25">
-      <c r="B118" s="69" t="s">
+      <c r="EI117" s="23"/>
+      <c r="EJ117" s="25"/>
+      <c r="EK117" s="25"/>
+      <c r="EL117" s="25"/>
+      <c r="EM117" s="25"/>
+      <c r="EN117" s="25"/>
+      <c r="EO117" s="25"/>
+      <c r="EP117" s="24">
+        <v>1</v>
+      </c>
+      <c r="EQ117" s="26"/>
+    </row>
+    <row r="118" spans="2:243" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E118" s="31"/>
+      <c r="EI118" s="27"/>
+      <c r="EJ118" s="28"/>
+      <c r="EK118" s="28"/>
+      <c r="EL118" s="28"/>
+      <c r="EM118" s="28"/>
+      <c r="EN118" s="28"/>
+      <c r="EO118" s="28"/>
+      <c r="EP118" s="28"/>
+      <c r="EQ118" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:243" x14ac:dyDescent="0.3">
+      <c r="B119" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="II118" s="11">
+      <c r="E119" s="31"/>
+      <c r="II119" s="11">
         <v>1</v>
       </c>
     </row>
